--- a/data/raw/election/voters-age-sex-education/2023/Balıkesir.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Balıkesir.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:27:18-64394845711" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="49">
   <si>
     <t>Balıkesir</t>
   </si>
@@ -161,6 +160,12 @@
   </si>
   <si>
     <t>Susurluk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -694,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -708,16 +713,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,10 +1056,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A525" sqref="A525:A526"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,52 +1075,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1160,14 +1174,14 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.587</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5.3780000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.702</v>
+      <c r="G6" s="5">
+        <v>1587</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5378</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1702</v>
       </c>
       <c r="J6" s="4">
         <v>14</v>
@@ -1178,8 +1192,8 @@
       <c r="L6" s="4">
         <v>51</v>
       </c>
-      <c r="M6" s="5">
-        <v>8.7639999999999993</v>
+      <c r="M6" s="6">
+        <v>8764</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1199,14 +1213,14 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.302</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.9279999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.6890000000000001</v>
+      <c r="G7" s="5">
+        <v>1302</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4928</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1689</v>
       </c>
       <c r="J7" s="4">
         <v>14</v>
@@ -1217,8 +1231,8 @@
       <c r="L7" s="4">
         <v>21</v>
       </c>
-      <c r="M7" s="5">
-        <v>7.9980000000000002</v>
+      <c r="M7" s="6">
+        <v>7998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1240,14 +1254,14 @@
       <c r="F8" s="4">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.1139999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.2890000000000001</v>
+      <c r="G8" s="5">
+        <v>1164</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2114</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3289</v>
       </c>
       <c r="J8" s="4">
         <v>319</v>
@@ -1258,8 +1272,8 @@
       <c r="L8" s="4">
         <v>29</v>
       </c>
-      <c r="M8" s="5">
-        <v>6.9710000000000001</v>
+      <c r="M8" s="6">
+        <v>6971</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1282,11 +1296,11 @@
       <c r="G9" s="4">
         <v>893</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.472</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3.1509999999999998</v>
+      <c r="H9" s="5">
+        <v>1472</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3151</v>
       </c>
       <c r="J9" s="4">
         <v>363</v>
@@ -1297,8 +1311,8 @@
       <c r="L9" s="4">
         <v>32</v>
       </c>
-      <c r="M9" s="5">
-        <v>6.0339999999999998</v>
+      <c r="M9" s="6">
+        <v>6034</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1323,11 +1337,11 @@
       <c r="G10" s="4">
         <v>497</v>
       </c>
-      <c r="H10" s="4">
-        <v>1.806</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.6469999999999998</v>
+      <c r="H10" s="5">
+        <v>1806</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2647</v>
       </c>
       <c r="J10" s="4">
         <v>408</v>
@@ -1338,8 +1352,8 @@
       <c r="L10" s="4">
         <v>24</v>
       </c>
-      <c r="M10" s="5">
-        <v>6.117</v>
+      <c r="M10" s="6">
+        <v>6117</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,11 +1376,11 @@
       <c r="G11" s="4">
         <v>442</v>
       </c>
-      <c r="H11" s="4">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.718</v>
+      <c r="H11" s="5">
+        <v>1386</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2718</v>
       </c>
       <c r="J11" s="4">
         <v>424</v>
@@ -1377,8 +1391,8 @@
       <c r="L11" s="4">
         <v>33</v>
       </c>
-      <c r="M11" s="5">
-        <v>5.9749999999999996</v>
+      <c r="M11" s="6">
+        <v>5975</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1403,11 +1417,11 @@
       <c r="G12" s="4">
         <v>487</v>
       </c>
-      <c r="H12" s="4">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2.3050000000000002</v>
+      <c r="H12" s="5">
+        <v>2015</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2305</v>
       </c>
       <c r="J12" s="4">
         <v>391</v>
@@ -1418,8 +1432,8 @@
       <c r="L12" s="4">
         <v>33</v>
       </c>
-      <c r="M12" s="5">
-        <v>6.3780000000000001</v>
+      <c r="M12" s="6">
+        <v>6378</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1442,11 +1456,11 @@
       <c r="G13" s="4">
         <v>567</v>
       </c>
-      <c r="H13" s="4">
-        <v>1.694</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.327</v>
+      <c r="H13" s="5">
+        <v>1694</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2327</v>
       </c>
       <c r="J13" s="4">
         <v>381</v>
@@ -1457,8 +1471,8 @@
       <c r="L13" s="4">
         <v>40</v>
       </c>
-      <c r="M13" s="5">
-        <v>6.73</v>
+      <c r="M13" s="6">
+        <v>6730</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1483,11 +1497,11 @@
       <c r="G14" s="4">
         <v>908</v>
       </c>
-      <c r="H14" s="4">
-        <v>2.302</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.1659999999999999</v>
+      <c r="H14" s="5">
+        <v>2302</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2166</v>
       </c>
       <c r="J14" s="4">
         <v>421</v>
@@ -1498,8 +1512,8 @@
       <c r="L14" s="4">
         <v>25</v>
       </c>
-      <c r="M14" s="5">
-        <v>7.2039999999999997</v>
+      <c r="M14" s="6">
+        <v>7204</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1513,8 +1527,8 @@
       <c r="D15" s="4">
         <v>34</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.2689999999999999</v>
+      <c r="E15" s="5">
+        <v>1269</v>
       </c>
       <c r="F15" s="4">
         <v>718</v>
@@ -1522,11 +1536,11 @@
       <c r="G15" s="4">
         <v>868</v>
       </c>
-      <c r="H15" s="4">
-        <v>1.885</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.8939999999999999</v>
+      <c r="H15" s="5">
+        <v>1885</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1894</v>
       </c>
       <c r="J15" s="4">
         <v>369</v>
@@ -1537,8 +1551,8 @@
       <c r="L15" s="4">
         <v>29</v>
       </c>
-      <c r="M15" s="5">
-        <v>7.1929999999999996</v>
+      <c r="M15" s="6">
+        <v>7193</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1563,11 +1577,11 @@
       <c r="G16" s="4">
         <v>803</v>
       </c>
-      <c r="H16" s="4">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.806</v>
+      <c r="H16" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1806</v>
       </c>
       <c r="J16" s="4">
         <v>295</v>
@@ -1578,8 +1592,8 @@
       <c r="L16" s="4">
         <v>33</v>
       </c>
-      <c r="M16" s="5">
-        <v>6.7290000000000001</v>
+      <c r="M16" s="6">
+        <v>6729</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1593,8 +1607,8 @@
       <c r="D17" s="4">
         <v>37</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.8360000000000001</v>
+      <c r="E17" s="5">
+        <v>1836</v>
       </c>
       <c r="F17" s="4">
         <v>876</v>
@@ -1602,11 +1616,11 @@
       <c r="G17" s="4">
         <v>945</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.591</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.385</v>
+      <c r="H17" s="5">
+        <v>1591</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1385</v>
       </c>
       <c r="J17" s="4">
         <v>195</v>
@@ -1617,8 +1631,8 @@
       <c r="L17" s="4">
         <v>40</v>
       </c>
-      <c r="M17" s="5">
-        <v>7.0019999999999998</v>
+      <c r="M17" s="6">
+        <v>7002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1643,11 +1657,11 @@
       <c r="G18" s="4">
         <v>850</v>
       </c>
-      <c r="H18" s="4">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.619</v>
+      <c r="H18" s="5">
+        <v>1594</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1619</v>
       </c>
       <c r="J18" s="4">
         <v>191</v>
@@ -1658,8 +1672,8 @@
       <c r="L18" s="4">
         <v>57</v>
       </c>
-      <c r="M18" s="5">
-        <v>6.2930000000000001</v>
+      <c r="M18" s="6">
+        <v>6293</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,8 +1687,8 @@
       <c r="D19" s="4">
         <v>70</v>
       </c>
-      <c r="E19" s="4">
-        <v>2.2440000000000002</v>
+      <c r="E19" s="5">
+        <v>2244</v>
       </c>
       <c r="F19" s="4">
         <v>851</v>
@@ -1682,8 +1696,8 @@
       <c r="G19" s="4">
         <v>805</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.198</v>
+      <c r="H19" s="5">
+        <v>1198</v>
       </c>
       <c r="I19" s="4">
         <v>905</v>
@@ -1697,8 +1711,8 @@
       <c r="L19" s="4">
         <v>73</v>
       </c>
-      <c r="M19" s="5">
-        <v>6.3230000000000004</v>
+      <c r="M19" s="6">
+        <v>6323</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,8 +1728,8 @@
       <c r="D20" s="4">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.343</v>
+      <c r="E20" s="5">
+        <v>1343</v>
       </c>
       <c r="F20" s="4">
         <v>842</v>
@@ -1723,11 +1737,11 @@
       <c r="G20" s="4">
         <v>767</v>
       </c>
-      <c r="H20" s="4">
-        <v>1.242</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.212</v>
+      <c r="H20" s="5">
+        <v>1242</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1212</v>
       </c>
       <c r="J20" s="4">
         <v>128</v>
@@ -1738,8 +1752,8 @@
       <c r="L20" s="4">
         <v>57</v>
       </c>
-      <c r="M20" s="5">
-        <v>5.6890000000000001</v>
+      <c r="M20" s="6">
+        <v>5689</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,8 +1767,8 @@
       <c r="D21" s="4">
         <v>115</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.859</v>
+      <c r="E21" s="5">
+        <v>2859</v>
       </c>
       <c r="F21" s="4">
         <v>570</v>
@@ -1777,8 +1791,8 @@
       <c r="L21" s="4">
         <v>55</v>
       </c>
-      <c r="M21" s="5">
-        <v>5.883</v>
+      <c r="M21" s="6">
+        <v>5883</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,8 +1808,8 @@
       <c r="D22" s="4">
         <v>36</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.841</v>
+      <c r="E22" s="5">
+        <v>1841</v>
       </c>
       <c r="F22" s="4">
         <v>408</v>
@@ -1803,8 +1817,8 @@
       <c r="G22" s="4">
         <v>530</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.0580000000000001</v>
+      <c r="H22" s="5">
+        <v>1058</v>
       </c>
       <c r="I22" s="4">
         <v>889</v>
@@ -1818,8 +1832,8 @@
       <c r="L22" s="4">
         <v>46</v>
       </c>
-      <c r="M22" s="5">
-        <v>4.9039999999999999</v>
+      <c r="M22" s="6">
+        <v>4904</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1833,8 +1847,8 @@
       <c r="D23" s="4">
         <v>223</v>
       </c>
-      <c r="E23" s="4">
-        <v>3.06</v>
+      <c r="E23" s="5">
+        <v>3060</v>
       </c>
       <c r="F23" s="4">
         <v>272</v>
@@ -1857,8 +1871,8 @@
       <c r="L23" s="4">
         <v>58</v>
       </c>
-      <c r="M23" s="5">
-        <v>5.3259999999999996</v>
+      <c r="M23" s="6">
+        <v>5326</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1874,8 +1888,8 @@
       <c r="D24" s="4">
         <v>61</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.8759999999999999</v>
+      <c r="E24" s="5">
+        <v>1876</v>
       </c>
       <c r="F24" s="4">
         <v>183</v>
@@ -1898,8 +1912,8 @@
       <c r="L24" s="4">
         <v>41</v>
       </c>
-      <c r="M24" s="5">
-        <v>4.008</v>
+      <c r="M24" s="6">
+        <v>4008</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1913,8 +1927,8 @@
       <c r="D25" s="4">
         <v>337</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.7</v>
+      <c r="E25" s="5">
+        <v>2700</v>
       </c>
       <c r="F25" s="4">
         <v>87</v>
@@ -1937,8 +1951,8 @@
       <c r="L25" s="4">
         <v>42</v>
       </c>
-      <c r="M25" s="5">
-        <v>4.3979999999999997</v>
+      <c r="M25" s="6">
+        <v>4398</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,8 +1968,8 @@
       <c r="D26" s="4">
         <v>86</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.546</v>
+      <c r="E26" s="5">
+        <v>1546</v>
       </c>
       <c r="F26" s="4">
         <v>69</v>
@@ -1978,8 +1992,8 @@
       <c r="L26" s="4">
         <v>31</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.746</v>
+      <c r="M26" s="6">
+        <v>2746</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1993,8 +2007,8 @@
       <c r="D27" s="4">
         <v>419</v>
       </c>
-      <c r="E27" s="4">
-        <v>2.0289999999999999</v>
+      <c r="E27" s="5">
+        <v>2029</v>
       </c>
       <c r="F27" s="4">
         <v>17</v>
@@ -2017,8 +2031,8 @@
       <c r="L27" s="4">
         <v>58</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.3</v>
+      <c r="M27" s="6">
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2034,8 +2048,8 @@
       <c r="D28" s="4">
         <v>357</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.95</v>
+      <c r="E28" s="5">
+        <v>1950</v>
       </c>
       <c r="F28" s="4">
         <v>43</v>
@@ -2058,8 +2072,8 @@
       <c r="L28" s="4">
         <v>57</v>
       </c>
-      <c r="M28" s="5">
-        <v>3.3519999999999999</v>
+      <c r="M28" s="6">
+        <v>3352</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2070,11 +2084,11 @@
       <c r="C29" s="4">
         <v>706</v>
       </c>
-      <c r="D29" s="4">
-        <v>1.022</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2.5190000000000001</v>
+      <c r="D29" s="5">
+        <v>1022</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2519</v>
       </c>
       <c r="F29" s="4">
         <v>10</v>
@@ -2097,54 +2111,54 @@
       <c r="L29" s="4">
         <v>55</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.7439999999999998</v>
+      <c r="M29" s="6">
+        <v>4744</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>30.305</v>
-      </c>
-      <c r="F30" s="5">
-        <v>10.842000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>15.776999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>37.542999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>34.850999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.2089999999999996</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>1536</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3096</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30305</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10842</v>
+      </c>
+      <c r="G30" s="6">
+        <v>15777</v>
+      </c>
+      <c r="H30" s="6">
+        <v>37543</v>
+      </c>
+      <c r="I30" s="6">
+        <v>34851</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4209</v>
+      </c>
+      <c r="K30" s="8">
         <v>882</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="M30" s="5">
-        <v>140.06100000000001</v>
+      <c r="L30" s="6">
+        <v>1020</v>
+      </c>
+      <c r="M30" s="6">
+        <v>140061</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2201,8 +2215,8 @@
       <c r="G32" s="4">
         <v>737</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.718</v>
+      <c r="H32" s="5">
+        <v>1718</v>
       </c>
       <c r="I32" s="4">
         <v>303</v>
@@ -2216,8 +2230,8 @@
       <c r="L32" s="4">
         <v>32</v>
       </c>
-      <c r="M32" s="5">
-        <v>2.8220000000000001</v>
+      <c r="M32" s="6">
+        <v>2822</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2240,8 +2254,8 @@
       <c r="G33" s="4">
         <v>514</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.637</v>
+      <c r="H33" s="5">
+        <v>1637</v>
       </c>
       <c r="I33" s="4">
         <v>501</v>
@@ -2255,8 +2269,8 @@
       <c r="L33" s="4">
         <v>19</v>
       </c>
-      <c r="M33" s="5">
-        <v>2.6960000000000002</v>
+      <c r="M33" s="6">
+        <v>2696</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,8 +2310,8 @@
       <c r="L34" s="4">
         <v>22</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.2250000000000001</v>
+      <c r="M34" s="6">
+        <v>2225</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2335,8 +2349,8 @@
       <c r="L35" s="4">
         <v>25</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.0379999999999998</v>
+      <c r="M35" s="6">
+        <v>2038</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2376,8 +2390,8 @@
       <c r="L36" s="4">
         <v>26</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.2639999999999998</v>
+      <c r="M36" s="6">
+        <v>2264</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2415,8 +2429,8 @@
       <c r="L37" s="4">
         <v>29</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.161</v>
+      <c r="M37" s="6">
+        <v>2161</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2456,8 +2470,8 @@
       <c r="L38" s="4">
         <v>32</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.3780000000000001</v>
+      <c r="M38" s="6">
+        <v>2378</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2495,8 +2509,8 @@
       <c r="L39" s="4">
         <v>27</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.2599999999999998</v>
+      <c r="M39" s="6">
+        <v>2260</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,8 +2550,8 @@
       <c r="L40" s="4">
         <v>37</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.5910000000000002</v>
+      <c r="M40" s="6">
+        <v>2591</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2575,8 +2589,8 @@
       <c r="L41" s="4">
         <v>29</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.5990000000000002</v>
+      <c r="M41" s="6">
+        <v>2599</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,8 +2630,8 @@
       <c r="L42" s="4">
         <v>29</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.4049999999999998</v>
+      <c r="M42" s="6">
+        <v>2405</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2655,8 +2669,8 @@
       <c r="L43" s="4">
         <v>33</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.6509999999999998</v>
+      <c r="M43" s="6">
+        <v>2651</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,8 +2710,8 @@
       <c r="L44" s="4">
         <v>63</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.5739999999999998</v>
+      <c r="M44" s="6">
+        <v>2574</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2735,8 +2749,8 @@
       <c r="L45" s="4">
         <v>67</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.76</v>
+      <c r="M45" s="6">
+        <v>2760</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2776,8 +2790,8 @@
       <c r="L46" s="4">
         <v>81</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.7040000000000002</v>
+      <c r="M46" s="6">
+        <v>2704</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2815,8 +2829,8 @@
       <c r="L47" s="4">
         <v>86</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.859</v>
+      <c r="M47" s="6">
+        <v>2859</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2856,8 +2870,8 @@
       <c r="L48" s="4">
         <v>97</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.6219999999999999</v>
+      <c r="M48" s="6">
+        <v>2622</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2871,8 +2885,8 @@
       <c r="D49" s="4">
         <v>119</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.119</v>
+      <c r="E49" s="5">
+        <v>1119</v>
       </c>
       <c r="F49" s="4">
         <v>112</v>
@@ -2895,8 +2909,8 @@
       <c r="L49" s="4">
         <v>103</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.9390000000000001</v>
+      <c r="M49" s="6">
+        <v>2939</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,8 +2950,8 @@
       <c r="L50" s="4">
         <v>122</v>
       </c>
-      <c r="M50" s="5">
-        <v>2.4220000000000002</v>
+      <c r="M50" s="6">
+        <v>2422</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2951,8 +2965,8 @@
       <c r="D51" s="4">
         <v>142</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.0649999999999999</v>
+      <c r="E51" s="5">
+        <v>1065</v>
       </c>
       <c r="F51" s="4">
         <v>67</v>
@@ -2975,8 +2989,8 @@
       <c r="L51" s="4">
         <v>88</v>
       </c>
-      <c r="M51" s="5">
-        <v>2.6360000000000001</v>
+      <c r="M51" s="6">
+        <v>2636</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,8 +3030,8 @@
       <c r="L52" s="4">
         <v>77</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.8859999999999999</v>
+      <c r="M52" s="6">
+        <v>1886</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3055,8 +3069,8 @@
       <c r="L53" s="4">
         <v>123</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.0760000000000001</v>
+      <c r="M53" s="6">
+        <v>2076</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3096,8 +3110,8 @@
       <c r="L54" s="4">
         <v>180</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.415</v>
+      <c r="M54" s="6">
+        <v>2415</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3111,8 +3125,8 @@
       <c r="D55" s="4">
         <v>329</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.393</v>
+      <c r="E55" s="5">
+        <v>1393</v>
       </c>
       <c r="F55" s="4">
         <v>20</v>
@@ -3135,54 +3149,54 @@
       <c r="L55" s="4">
         <v>145</v>
       </c>
-      <c r="M55" s="5">
-        <v>3.0720000000000001</v>
+      <c r="M55" s="6">
+        <v>3072</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>757</v>
       </c>
-      <c r="D56" s="5">
-        <v>1.52</v>
-      </c>
-      <c r="E56" s="5">
-        <v>13.771000000000001</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.4449999999999998</v>
-      </c>
-      <c r="G56" s="5">
-        <v>7.35</v>
-      </c>
-      <c r="H56" s="5">
-        <v>17.533000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>12.752000000000001</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="D56" s="6">
+        <v>1520</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13771</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3445</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7350</v>
+      </c>
+      <c r="H56" s="6">
+        <v>17533</v>
+      </c>
+      <c r="I56" s="6">
+        <v>12752</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1207</v>
+      </c>
+      <c r="K56" s="8">
         <v>148</v>
       </c>
-      <c r="L56" s="5">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="M56" s="5">
-        <v>60.055</v>
+      <c r="L56" s="6">
+        <v>1572</v>
+      </c>
+      <c r="M56" s="6">
+        <v>60055</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3268,7 @@
       <c r="L58" s="4">
         <v>6</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>429</v>
       </c>
     </row>
@@ -3293,7 +3307,7 @@
       <c r="L59" s="4">
         <v>2</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>374</v>
       </c>
     </row>
@@ -3334,7 +3348,7 @@
       <c r="L60" s="4">
         <v>3</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>341</v>
       </c>
     </row>
@@ -3373,7 +3387,7 @@
       <c r="L61" s="4">
         <v>3</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>254</v>
       </c>
     </row>
@@ -3414,7 +3428,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>269</v>
       </c>
     </row>
@@ -3453,7 +3467,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>195</v>
       </c>
     </row>
@@ -3494,7 +3508,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>303</v>
       </c>
     </row>
@@ -3533,7 +3547,7 @@
       <c r="L65" s="4">
         <v>8</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>238</v>
       </c>
     </row>
@@ -3574,7 +3588,7 @@
       <c r="L66" s="4">
         <v>2</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>342</v>
       </c>
     </row>
@@ -3613,7 +3627,7 @@
       <c r="L67" s="4">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>304</v>
       </c>
     </row>
@@ -3654,7 +3668,7 @@
       <c r="L68" s="4">
         <v>5</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>393</v>
       </c>
     </row>
@@ -3693,7 +3707,7 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>389</v>
       </c>
     </row>
@@ -3734,7 +3748,7 @@
       <c r="L70" s="4">
         <v>2</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>479</v>
       </c>
     </row>
@@ -3773,7 +3787,7 @@
       <c r="L71" s="4">
         <v>4</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>449</v>
       </c>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="L72" s="4">
         <v>9</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>550</v>
       </c>
     </row>
@@ -3853,7 +3867,7 @@
       <c r="L73" s="4">
         <v>8</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>550</v>
       </c>
     </row>
@@ -3894,7 +3908,7 @@
       <c r="L74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>546</v>
       </c>
     </row>
@@ -3933,7 +3947,7 @@
       <c r="L75" s="4">
         <v>8</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>587</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>530</v>
       </c>
     </row>
@@ -4013,7 +4027,7 @@
       <c r="L77" s="4">
         <v>6</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>563</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>421</v>
       </c>
     </row>
@@ -4093,7 +4107,7 @@
       <c r="L79" s="4">
         <v>7</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>582</v>
       </c>
     </row>
@@ -4134,7 +4148,7 @@
       <c r="L80" s="4">
         <v>8</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>822</v>
       </c>
     </row>
@@ -4173,54 +4187,54 @@
       <c r="L81" s="4">
         <v>3</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M81" s="6">
+        <v>1047</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>310</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>901</v>
       </c>
-      <c r="E82" s="5">
-        <v>4.9180000000000001</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>4918</v>
+      </c>
+      <c r="F82" s="8">
         <v>902</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.252</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="G82" s="6">
+        <v>1252</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1699</v>
+      </c>
+      <c r="I82" s="8">
         <v>809</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="8">
         <v>62</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>4</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>100</v>
       </c>
-      <c r="M82" s="5">
-        <v>10.957000000000001</v>
+      <c r="M82" s="6">
+        <v>10957</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4274,14 +4288,14 @@
       <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.3150000000000004</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.0349999999999999</v>
+      <c r="G84" s="5">
+        <v>1328</v>
+      </c>
+      <c r="H84" s="5">
+        <v>4315</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1035</v>
       </c>
       <c r="J84" s="4">
         <v>4</v>
@@ -4292,8 +4306,8 @@
       <c r="L84" s="4">
         <v>27</v>
       </c>
-      <c r="M84" s="5">
-        <v>6.742</v>
+      <c r="M84" s="6">
+        <v>6742</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4316,11 +4330,11 @@
       <c r="G85" s="4">
         <v>964</v>
       </c>
-      <c r="H85" s="4">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.417</v>
+      <c r="H85" s="5">
+        <v>3844</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1417</v>
       </c>
       <c r="J85" s="4">
         <v>11</v>
@@ -4331,8 +4345,8 @@
       <c r="L85" s="4">
         <v>17</v>
       </c>
-      <c r="M85" s="5">
-        <v>6.3049999999999997</v>
+      <c r="M85" s="6">
+        <v>6305</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4354,14 +4368,14 @@
       <c r="F86" s="4">
         <v>39</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.022</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.835</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2.3530000000000002</v>
+      <c r="G86" s="5">
+        <v>1022</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1835</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2353</v>
       </c>
       <c r="J86" s="4">
         <v>142</v>
@@ -4372,8 +4386,8 @@
       <c r="L86" s="4">
         <v>31</v>
       </c>
-      <c r="M86" s="5">
-        <v>5.4790000000000001</v>
+      <c r="M86" s="6">
+        <v>5479</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4396,11 +4410,11 @@
       <c r="G87" s="4">
         <v>709</v>
       </c>
-      <c r="H87" s="4">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.83</v>
+      <c r="H87" s="5">
+        <v>1237</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2830</v>
       </c>
       <c r="J87" s="4">
         <v>202</v>
@@ -4411,8 +4425,8 @@
       <c r="L87" s="4">
         <v>37</v>
       </c>
-      <c r="M87" s="5">
-        <v>5.17</v>
+      <c r="M87" s="6">
+        <v>5170</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4437,11 +4451,11 @@
       <c r="G88" s="4">
         <v>449</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.829</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2.4319999999999999</v>
+      <c r="H88" s="5">
+        <v>1829</v>
+      </c>
+      <c r="I88" s="5">
+        <v>2432</v>
       </c>
       <c r="J88" s="4">
         <v>243</v>
@@ -4452,8 +4466,8 @@
       <c r="L88" s="4">
         <v>30</v>
       </c>
-      <c r="M88" s="5">
-        <v>5.6970000000000001</v>
+      <c r="M88" s="6">
+        <v>5697</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4476,11 +4490,11 @@
       <c r="G89" s="4">
         <v>343</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.512</v>
-      </c>
-      <c r="I89" s="4">
-        <v>2.5640000000000001</v>
+      <c r="H89" s="5">
+        <v>1512</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2564</v>
       </c>
       <c r="J89" s="4">
         <v>281</v>
@@ -4491,8 +4505,8 @@
       <c r="L89" s="4">
         <v>43</v>
       </c>
-      <c r="M89" s="5">
-        <v>5.5869999999999997</v>
+      <c r="M89" s="6">
+        <v>5587</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4517,11 +4531,11 @@
       <c r="G90" s="4">
         <v>428</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.3559999999999999</v>
+      <c r="H90" s="5">
+        <v>1995</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2356</v>
       </c>
       <c r="J90" s="4">
         <v>248</v>
@@ -4532,8 +4546,8 @@
       <c r="L90" s="4">
         <v>32</v>
       </c>
-      <c r="M90" s="5">
-        <v>6.165</v>
+      <c r="M90" s="6">
+        <v>6165</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4556,11 +4570,11 @@
       <c r="G91" s="4">
         <v>449</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="I91" s="4">
-        <v>2.133</v>
+      <c r="H91" s="5">
+        <v>1773</v>
+      </c>
+      <c r="I91" s="5">
+        <v>2133</v>
       </c>
       <c r="J91" s="4">
         <v>249</v>
@@ -4571,8 +4585,8 @@
       <c r="L91" s="4">
         <v>37</v>
       </c>
-      <c r="M91" s="5">
-        <v>5.9820000000000002</v>
+      <c r="M91" s="6">
+        <v>5982</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,11 +4611,11 @@
       <c r="G92" s="4">
         <v>827</v>
       </c>
-      <c r="H92" s="4">
-        <v>2.226</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1.83</v>
+      <c r="H92" s="5">
+        <v>2226</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1830</v>
       </c>
       <c r="J92" s="4">
         <v>250</v>
@@ -4612,8 +4626,8 @@
       <c r="L92" s="4">
         <v>33</v>
       </c>
-      <c r="M92" s="5">
-        <v>6.375</v>
+      <c r="M92" s="6">
+        <v>6375</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4627,8 +4641,8 @@
       <c r="D93" s="4">
         <v>53</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.0169999999999999</v>
+      <c r="E93" s="5">
+        <v>1017</v>
       </c>
       <c r="F93" s="4">
         <v>625</v>
@@ -4636,11 +4650,11 @@
       <c r="G93" s="4">
         <v>807</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.698</v>
+      <c r="H93" s="5">
+        <v>1928</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1698</v>
       </c>
       <c r="J93" s="4">
         <v>208</v>
@@ -4651,8 +4665,8 @@
       <c r="L93" s="4">
         <v>26</v>
       </c>
-      <c r="M93" s="5">
-        <v>6.4320000000000004</v>
+      <c r="M93" s="6">
+        <v>6432</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4677,11 +4691,11 @@
       <c r="G94" s="4">
         <v>827</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.919</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.4530000000000001</v>
+      <c r="H94" s="5">
+        <v>1919</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1453</v>
       </c>
       <c r="J94" s="4">
         <v>158</v>
@@ -4692,8 +4706,8 @@
       <c r="L94" s="4">
         <v>33</v>
       </c>
-      <c r="M94" s="5">
-        <v>5.8490000000000002</v>
+      <c r="M94" s="6">
+        <v>5849</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,8 +4721,8 @@
       <c r="D95" s="4">
         <v>33</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.284</v>
+      <c r="E95" s="5">
+        <v>1284</v>
       </c>
       <c r="F95" s="4">
         <v>798</v>
@@ -4716,11 +4730,11 @@
       <c r="G95" s="4">
         <v>763</v>
       </c>
-      <c r="H95" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1.081</v>
+      <c r="H95" s="5">
+        <v>1628</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1081</v>
       </c>
       <c r="J95" s="4">
         <v>98</v>
@@ -4731,8 +4745,8 @@
       <c r="L95" s="4">
         <v>35</v>
       </c>
-      <c r="M95" s="5">
-        <v>5.782</v>
+      <c r="M95" s="6">
+        <v>5782</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4757,11 +4771,11 @@
       <c r="G96" s="4">
         <v>841</v>
       </c>
-      <c r="H96" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1.135</v>
+      <c r="H96" s="5">
+        <v>1572</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1135</v>
       </c>
       <c r="J96" s="4">
         <v>112</v>
@@ -4772,8 +4786,8 @@
       <c r="L96" s="4">
         <v>48</v>
       </c>
-      <c r="M96" s="5">
-        <v>5.3490000000000002</v>
+      <c r="M96" s="6">
+        <v>5349</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4787,8 +4801,8 @@
       <c r="D97" s="4">
         <v>51</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.7</v>
+      <c r="E97" s="5">
+        <v>1700</v>
       </c>
       <c r="F97" s="4">
         <v>847</v>
@@ -4796,8 +4810,8 @@
       <c r="G97" s="4">
         <v>745</v>
       </c>
-      <c r="H97" s="4">
-        <v>1.3140000000000001</v>
+      <c r="H97" s="5">
+        <v>1314</v>
       </c>
       <c r="I97" s="4">
         <v>688</v>
@@ -4811,8 +4825,8 @@
       <c r="L97" s="4">
         <v>43</v>
       </c>
-      <c r="M97" s="5">
-        <v>5.48</v>
+      <c r="M97" s="6">
+        <v>5480</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4828,8 +4842,8 @@
       <c r="D98" s="4">
         <v>14</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.024</v>
+      <c r="E98" s="5">
+        <v>1024</v>
       </c>
       <c r="F98" s="4">
         <v>679</v>
@@ -4837,8 +4851,8 @@
       <c r="G98" s="4">
         <v>784</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.325</v>
+      <c r="H98" s="5">
+        <v>1325</v>
       </c>
       <c r="I98" s="4">
         <v>849</v>
@@ -4852,8 +4866,8 @@
       <c r="L98" s="4">
         <v>38</v>
       </c>
-      <c r="M98" s="5">
-        <v>4.84</v>
+      <c r="M98" s="6">
+        <v>4840</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4867,8 +4881,8 @@
       <c r="D99" s="4">
         <v>57</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.2040000000000002</v>
+      <c r="E99" s="5">
+        <v>2204</v>
       </c>
       <c r="F99" s="4">
         <v>622</v>
@@ -4876,8 +4890,8 @@
       <c r="G99" s="4">
         <v>667</v>
       </c>
-      <c r="H99" s="4">
-        <v>1.071</v>
+      <c r="H99" s="5">
+        <v>1071</v>
       </c>
       <c r="I99" s="4">
         <v>454</v>
@@ -4891,8 +4905,8 @@
       <c r="L99" s="4">
         <v>53</v>
       </c>
-      <c r="M99" s="5">
-        <v>5.2240000000000002</v>
+      <c r="M99" s="6">
+        <v>5224</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4908,8 +4922,8 @@
       <c r="D100" s="4">
         <v>27</v>
       </c>
-      <c r="E100" s="4">
-        <v>1.488</v>
+      <c r="E100" s="5">
+        <v>1488</v>
       </c>
       <c r="F100" s="4">
         <v>418</v>
@@ -4917,8 +4931,8 @@
       <c r="G100" s="4">
         <v>621</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.177</v>
+      <c r="H100" s="5">
+        <v>1177</v>
       </c>
       <c r="I100" s="4">
         <v>648</v>
@@ -4932,8 +4946,8 @@
       <c r="L100" s="4">
         <v>60</v>
       </c>
-      <c r="M100" s="5">
-        <v>4.5149999999999997</v>
+      <c r="M100" s="6">
+        <v>4515</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4947,8 +4961,8 @@
       <c r="D101" s="4">
         <v>92</v>
       </c>
-      <c r="E101" s="4">
-        <v>2.8260000000000001</v>
+      <c r="E101" s="5">
+        <v>2826</v>
       </c>
       <c r="F101" s="4">
         <v>317</v>
@@ -4971,8 +4985,8 @@
       <c r="L101" s="4">
         <v>50</v>
       </c>
-      <c r="M101" s="5">
-        <v>4.8789999999999996</v>
+      <c r="M101" s="6">
+        <v>4879</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4988,8 +5002,8 @@
       <c r="D102" s="4">
         <v>33</v>
       </c>
-      <c r="E102" s="4">
-        <v>1.593</v>
+      <c r="E102" s="5">
+        <v>1593</v>
       </c>
       <c r="F102" s="4">
         <v>184</v>
@@ -5012,8 +5026,8 @@
       <c r="L102" s="4">
         <v>50</v>
       </c>
-      <c r="M102" s="5">
-        <v>3.5419999999999998</v>
+      <c r="M102" s="6">
+        <v>3542</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5027,8 +5041,8 @@
       <c r="D103" s="4">
         <v>145</v>
       </c>
-      <c r="E103" s="4">
-        <v>2.617</v>
+      <c r="E103" s="5">
+        <v>2617</v>
       </c>
       <c r="F103" s="4">
         <v>110</v>
@@ -5051,8 +5065,8 @@
       <c r="L103" s="4">
         <v>64</v>
       </c>
-      <c r="M103" s="5">
-        <v>3.99</v>
+      <c r="M103" s="6">
+        <v>3990</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5068,8 +5082,8 @@
       <c r="D104" s="4">
         <v>45</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.42</v>
+      <c r="E104" s="5">
+        <v>1420</v>
       </c>
       <c r="F104" s="4">
         <v>66</v>
@@ -5092,8 +5106,8 @@
       <c r="L104" s="4">
         <v>38</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.5169999999999999</v>
+      <c r="M104" s="6">
+        <v>2517</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5107,8 +5121,8 @@
       <c r="D105" s="4">
         <v>233</v>
       </c>
-      <c r="E105" s="4">
-        <v>2.2879999999999998</v>
+      <c r="E105" s="5">
+        <v>2288</v>
       </c>
       <c r="F105" s="4">
         <v>22</v>
@@ -5131,8 +5145,8 @@
       <c r="L105" s="4">
         <v>39</v>
       </c>
-      <c r="M105" s="5">
-        <v>3.2919999999999998</v>
+      <c r="M105" s="6">
+        <v>3292</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5148,8 +5162,8 @@
       <c r="D106" s="4">
         <v>152</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.871</v>
+      <c r="E106" s="5">
+        <v>1871</v>
       </c>
       <c r="F106" s="4">
         <v>17</v>
@@ -5172,8 +5186,8 @@
       <c r="L106" s="4">
         <v>52</v>
       </c>
-      <c r="M106" s="5">
-        <v>3.0819999999999999</v>
+      <c r="M106" s="6">
+        <v>3082</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5187,8 +5201,8 @@
       <c r="D107" s="4">
         <v>820</v>
       </c>
-      <c r="E107" s="4">
-        <v>2.93</v>
+      <c r="E107" s="5">
+        <v>2930</v>
       </c>
       <c r="F107" s="4">
         <v>13</v>
@@ -5211,54 +5225,54 @@
       <c r="L107" s="4">
         <v>71</v>
       </c>
-      <c r="M107" s="5">
-        <v>4.6609999999999996</v>
+      <c r="M107" s="6">
+        <v>4661</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>916</v>
       </c>
-      <c r="D108" s="5">
-        <v>2.113</v>
-      </c>
-      <c r="E108" s="5">
-        <v>27.248999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>9.6020000000000003</v>
-      </c>
-      <c r="G108" s="5">
-        <v>14.507</v>
-      </c>
-      <c r="H108" s="5">
-        <v>35.659999999999997</v>
-      </c>
-      <c r="I108" s="5">
-        <v>28.864999999999998</v>
-      </c>
-      <c r="J108" s="5">
-        <v>2.5409999999999999</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="D108" s="6">
+        <v>2113</v>
+      </c>
+      <c r="E108" s="6">
+        <v>27249</v>
+      </c>
+      <c r="F108" s="6">
+        <v>9602</v>
+      </c>
+      <c r="G108" s="6">
+        <v>14507</v>
+      </c>
+      <c r="H108" s="6">
+        <v>35660</v>
+      </c>
+      <c r="I108" s="6">
+        <v>28865</v>
+      </c>
+      <c r="J108" s="6">
+        <v>2541</v>
+      </c>
+      <c r="K108" s="8">
         <v>496</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>987</v>
       </c>
-      <c r="M108" s="5">
-        <v>122.93600000000001</v>
+      <c r="M108" s="6">
+        <v>122936</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5315,8 +5329,8 @@
       <c r="G110" s="4">
         <v>469</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.1870000000000001</v>
+      <c r="H110" s="5">
+        <v>1187</v>
       </c>
       <c r="I110" s="4">
         <v>272</v>
@@ -5330,8 +5344,8 @@
       <c r="L110" s="4">
         <v>19</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.958</v>
+      <c r="M110" s="6">
+        <v>1958</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5354,8 +5368,8 @@
       <c r="G111" s="4">
         <v>389</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.2110000000000001</v>
+      <c r="H111" s="5">
+        <v>1211</v>
       </c>
       <c r="I111" s="4">
         <v>378</v>
@@ -5369,8 +5383,8 @@
       <c r="L111" s="4">
         <v>4</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M111" s="6">
+        <v>1993</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5410,8 +5424,8 @@
       <c r="L112" s="4">
         <v>7</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.36</v>
+      <c r="M112" s="6">
+        <v>1360</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5449,8 +5463,8 @@
       <c r="L113" s="4">
         <v>9</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.234</v>
+      <c r="M113" s="6">
+        <v>1234</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5490,8 +5504,8 @@
       <c r="L114" s="4">
         <v>8</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.3120000000000001</v>
+      <c r="M114" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5529,8 +5543,8 @@
       <c r="L115" s="4">
         <v>6</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.2270000000000001</v>
+      <c r="M115" s="6">
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5570,8 +5584,8 @@
       <c r="L116" s="4">
         <v>6</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.5389999999999999</v>
+      <c r="M116" s="6">
+        <v>1539</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,8 +5623,8 @@
       <c r="L117" s="4">
         <v>6</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.4910000000000001</v>
+      <c r="M117" s="6">
+        <v>1491</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,8 +5664,8 @@
       <c r="L118" s="4">
         <v>5</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.655</v>
+      <c r="M118" s="6">
+        <v>1655</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5689,8 +5703,8 @@
       <c r="L119" s="4">
         <v>7</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.631</v>
+      <c r="M119" s="6">
+        <v>1631</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,8 +5744,8 @@
       <c r="L120" s="4">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.671</v>
+      <c r="M120" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5769,8 +5783,8 @@
       <c r="L121" s="4">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.651</v>
+      <c r="M121" s="6">
+        <v>1651</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5810,8 +5824,8 @@
       <c r="L122" s="4">
         <v>21</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.738</v>
+      <c r="M122" s="6">
+        <v>1738</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5825,8 +5839,8 @@
       <c r="D123" s="4">
         <v>16</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.0760000000000001</v>
+      <c r="E123" s="5">
+        <v>1076</v>
       </c>
       <c r="F123" s="4">
         <v>152</v>
@@ -5849,8 +5863,8 @@
       <c r="L123" s="4">
         <v>21</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.7390000000000001</v>
+      <c r="M123" s="6">
+        <v>1739</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5890,8 +5904,8 @@
       <c r="L124" s="4">
         <v>25</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.7370000000000001</v>
+      <c r="M124" s="6">
+        <v>1737</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5905,8 +5919,8 @@
       <c r="D125" s="4">
         <v>37</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.3939999999999999</v>
+      <c r="E125" s="5">
+        <v>1394</v>
       </c>
       <c r="F125" s="4">
         <v>86</v>
@@ -5929,8 +5943,8 @@
       <c r="L125" s="4">
         <v>22</v>
       </c>
-      <c r="M125" s="5">
-        <v>1.8160000000000001</v>
+      <c r="M125" s="6">
+        <v>1816</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5970,8 +5984,8 @@
       <c r="L126" s="4">
         <v>18</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.5389999999999999</v>
+      <c r="M126" s="6">
+        <v>1539</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5985,8 +5999,8 @@
       <c r="D127" s="4">
         <v>109</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.361</v>
+      <c r="E127" s="5">
+        <v>1361</v>
       </c>
       <c r="F127" s="4">
         <v>36</v>
@@ -6009,8 +6023,8 @@
       <c r="L127" s="4">
         <v>12</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.734</v>
+      <c r="M127" s="6">
+        <v>1734</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6050,8 +6064,8 @@
       <c r="L128" s="4">
         <v>12</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.3340000000000001</v>
+      <c r="M128" s="6">
+        <v>1334</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6065,8 +6079,8 @@
       <c r="D129" s="4">
         <v>185</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.081</v>
+      <c r="E129" s="5">
+        <v>1081</v>
       </c>
       <c r="F129" s="4">
         <v>14</v>
@@ -6089,8 +6103,8 @@
       <c r="L129" s="4">
         <v>16</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.48</v>
+      <c r="M129" s="6">
+        <v>1480</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6130,7 +6144,7 @@
       <c r="L130" s="4">
         <v>19</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>981</v>
       </c>
     </row>
@@ -6169,8 +6183,8 @@
       <c r="L131" s="4">
         <v>27</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.2230000000000001</v>
+      <c r="M131" s="6">
+        <v>1223</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6210,8 +6224,8 @@
       <c r="L132" s="4">
         <v>34</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.3680000000000001</v>
+      <c r="M132" s="6">
+        <v>1368</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6249,54 +6263,54 @@
       <c r="L133" s="4">
         <v>26</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.8480000000000001</v>
+      <c r="M133" s="6">
+        <v>1848</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="E134" s="5">
-        <v>13.346</v>
-      </c>
-      <c r="F134" s="5">
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="G134" s="5">
-        <v>5.6079999999999997</v>
-      </c>
-      <c r="H134" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="I134" s="5">
-        <v>4.2409999999999997</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1140</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1536</v>
+      </c>
+      <c r="E134" s="6">
+        <v>13346</v>
+      </c>
+      <c r="F134" s="6">
+        <v>3356</v>
+      </c>
+      <c r="G134" s="6">
+        <v>5608</v>
+      </c>
+      <c r="H134" s="6">
+        <v>7300</v>
+      </c>
+      <c r="I134" s="6">
+        <v>4241</v>
+      </c>
+      <c r="J134" s="8">
         <v>346</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>26</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>360</v>
       </c>
-      <c r="M134" s="5">
-        <v>37.259</v>
+      <c r="M134" s="6">
+        <v>37259</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6353,8 +6367,8 @@
       <c r="G136" s="4">
         <v>622</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.5069999999999999</v>
+      <c r="H136" s="5">
+        <v>1507</v>
       </c>
       <c r="I136" s="4">
         <v>348</v>
@@ -6368,8 +6382,8 @@
       <c r="L136" s="4">
         <v>9</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.5030000000000001</v>
+      <c r="M136" s="6">
+        <v>2503</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6392,8 +6406,8 @@
       <c r="G137" s="4">
         <v>466</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.504</v>
+      <c r="H137" s="5">
+        <v>1504</v>
       </c>
       <c r="I137" s="4">
         <v>462</v>
@@ -6407,8 +6421,8 @@
       <c r="L137" s="4">
         <v>10</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.4769999999999999</v>
+      <c r="M137" s="6">
+        <v>2477</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6448,8 +6462,8 @@
       <c r="L138" s="4">
         <v>12</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.804</v>
+      <c r="M138" s="6">
+        <v>1804</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6487,8 +6501,8 @@
       <c r="L139" s="4">
         <v>13</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.798</v>
+      <c r="M139" s="6">
+        <v>1798</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6528,8 +6542,8 @@
       <c r="L140" s="4">
         <v>11</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.8029999999999999</v>
+      <c r="M140" s="6">
+        <v>1803</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6567,8 +6581,8 @@
       <c r="L141" s="4">
         <v>21</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.855</v>
+      <c r="M141" s="6">
+        <v>1855</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6608,8 +6622,8 @@
       <c r="L142" s="4">
         <v>11</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.9610000000000001</v>
+      <c r="M142" s="6">
+        <v>1961</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6647,8 +6661,8 @@
       <c r="L143" s="4">
         <v>27</v>
       </c>
-      <c r="M143" s="5">
-        <v>2.0630000000000002</v>
+      <c r="M143" s="6">
+        <v>2063</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6688,8 +6702,8 @@
       <c r="L144" s="4">
         <v>13</v>
       </c>
-      <c r="M144" s="5">
-        <v>2.1970000000000001</v>
+      <c r="M144" s="6">
+        <v>2197</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6727,8 +6741,8 @@
       <c r="L145" s="4">
         <v>26</v>
       </c>
-      <c r="M145" s="5">
-        <v>2.2879999999999998</v>
+      <c r="M145" s="6">
+        <v>2288</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6768,8 +6782,8 @@
       <c r="L146" s="4">
         <v>20</v>
       </c>
-      <c r="M146" s="5">
-        <v>2.0990000000000002</v>
+      <c r="M146" s="6">
+        <v>2099</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6807,8 +6821,8 @@
       <c r="L147" s="4">
         <v>25</v>
       </c>
-      <c r="M147" s="5">
-        <v>2.2040000000000002</v>
+      <c r="M147" s="6">
+        <v>2204</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6848,8 +6862,8 @@
       <c r="L148" s="4">
         <v>24</v>
       </c>
-      <c r="M148" s="5">
-        <v>2.1579999999999999</v>
+      <c r="M148" s="6">
+        <v>2158</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6887,8 +6901,8 @@
       <c r="L149" s="4">
         <v>31</v>
       </c>
-      <c r="M149" s="5">
-        <v>2.3359999999999999</v>
+      <c r="M149" s="6">
+        <v>2336</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6928,8 +6942,8 @@
       <c r="L150" s="4">
         <v>41</v>
       </c>
-      <c r="M150" s="5">
-        <v>2.141</v>
+      <c r="M150" s="6">
+        <v>2141</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6943,8 +6957,8 @@
       <c r="D151" s="4">
         <v>77</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E151" s="5">
+        <v>1023</v>
       </c>
       <c r="F151" s="4">
         <v>146</v>
@@ -6967,8 +6981,8 @@
       <c r="L151" s="4">
         <v>41</v>
       </c>
-      <c r="M151" s="5">
-        <v>2.407</v>
+      <c r="M151" s="6">
+        <v>2407</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7008,8 +7022,8 @@
       <c r="L152" s="4">
         <v>63</v>
       </c>
-      <c r="M152" s="5">
-        <v>2.2690000000000001</v>
+      <c r="M152" s="6">
+        <v>2269</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7023,8 +7037,8 @@
       <c r="D153" s="4">
         <v>89</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.145</v>
+      <c r="E153" s="5">
+        <v>1145</v>
       </c>
       <c r="F153" s="4">
         <v>85</v>
@@ -7047,8 +7061,8 @@
       <c r="L153" s="4">
         <v>62</v>
       </c>
-      <c r="M153" s="5">
-        <v>2.5139999999999998</v>
+      <c r="M153" s="6">
+        <v>2514</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7088,8 +7102,8 @@
       <c r="L154" s="4">
         <v>72</v>
       </c>
-      <c r="M154" s="5">
-        <v>2.1589999999999998</v>
+      <c r="M154" s="6">
+        <v>2159</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7103,8 +7117,8 @@
       <c r="D155" s="4">
         <v>150</v>
       </c>
-      <c r="E155" s="4">
-        <v>1.02</v>
+      <c r="E155" s="5">
+        <v>1020</v>
       </c>
       <c r="F155" s="4">
         <v>40</v>
@@ -7127,8 +7141,8 @@
       <c r="L155" s="4">
         <v>51</v>
       </c>
-      <c r="M155" s="5">
-        <v>2.1379999999999999</v>
+      <c r="M155" s="6">
+        <v>2138</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7168,8 +7182,8 @@
       <c r="L156" s="4">
         <v>59</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.5840000000000001</v>
+      <c r="M156" s="6">
+        <v>1584</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7207,8 +7221,8 @@
       <c r="L157" s="4">
         <v>50</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.639</v>
+      <c r="M157" s="6">
+        <v>1639</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7248,8 +7262,8 @@
       <c r="L158" s="4">
         <v>68</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.7989999999999999</v>
+      <c r="M158" s="6">
+        <v>1799</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7287,54 +7301,54 @@
       <c r="L159" s="4">
         <v>62</v>
       </c>
-      <c r="M159" s="5">
-        <v>2.2069999999999999</v>
+      <c r="M159" s="6">
+        <v>2207</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="8">
         <v>867</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>12.231</v>
-      </c>
-      <c r="F160" s="5">
-        <v>3.4390000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>6.1379999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>13.372999999999999</v>
-      </c>
-      <c r="I160" s="5">
-        <v>11.1</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="D160" s="6">
+        <v>1406</v>
+      </c>
+      <c r="E160" s="6">
+        <v>12231</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3439</v>
+      </c>
+      <c r="G160" s="6">
+        <v>6138</v>
+      </c>
+      <c r="H160" s="6">
+        <v>13373</v>
+      </c>
+      <c r="I160" s="6">
+        <v>11100</v>
+      </c>
+      <c r="J160" s="8">
         <v>918</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>109</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>822</v>
       </c>
-      <c r="M160" s="5">
-        <v>50.402999999999999</v>
+      <c r="M160" s="6">
+        <v>50403</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7391,8 +7405,8 @@
       <c r="G162" s="4">
         <v>283</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.042</v>
+      <c r="H162" s="5">
+        <v>1042</v>
       </c>
       <c r="I162" s="4">
         <v>213</v>
@@ -7406,8 +7420,8 @@
       <c r="L162" s="4">
         <v>18</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.5660000000000001</v>
+      <c r="M162" s="6">
+        <v>1566</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7445,8 +7459,8 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.452</v>
+      <c r="M163" s="6">
+        <v>1452</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7486,7 +7500,7 @@
       <c r="L164" s="4">
         <v>3</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>913</v>
       </c>
     </row>
@@ -7525,7 +7539,7 @@
       <c r="L165" s="4">
         <v>6</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>820</v>
       </c>
     </row>
@@ -7566,7 +7580,7 @@
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>797</v>
       </c>
     </row>
@@ -7605,7 +7619,7 @@
       <c r="L167" s="4">
         <v>3</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>737</v>
       </c>
     </row>
@@ -7646,7 +7660,7 @@
       <c r="L168" s="4">
         <v>1</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>874</v>
       </c>
     </row>
@@ -7685,7 +7699,7 @@
       <c r="L169" s="4">
         <v>1</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>801</v>
       </c>
     </row>
@@ -7726,7 +7740,7 @@
       <c r="L170" s="4">
         <v>1</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>985</v>
       </c>
     </row>
@@ -7765,8 +7779,8 @@
       <c r="L171" s="4">
         <v>1</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.079</v>
+      <c r="M171" s="6">
+        <v>1079</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7806,8 +7820,8 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.1559999999999999</v>
+      <c r="M172" s="6">
+        <v>1156</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7845,8 +7859,8 @@
       <c r="L173" s="4">
         <v>1</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.167</v>
+      <c r="M173" s="6">
+        <v>1167</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7886,8 +7900,8 @@
       <c r="L174" s="4">
         <v>1</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.2050000000000001</v>
+      <c r="M174" s="6">
+        <v>1205</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7925,8 +7939,8 @@
       <c r="L175" s="4">
         <v>2</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.2070000000000001</v>
+      <c r="M175" s="6">
+        <v>1207</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7966,8 +7980,8 @@
       <c r="L176" s="4">
         <v>2</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.3080000000000001</v>
+      <c r="M176" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -8005,8 +8019,8 @@
       <c r="L177" s="4">
         <v>2</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.365</v>
+      <c r="M177" s="6">
+        <v>1365</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8046,8 +8060,8 @@
       <c r="L178" s="4">
         <v>3</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.2250000000000001</v>
+      <c r="M178" s="6">
+        <v>1225</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8085,8 +8099,8 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.327</v>
+      <c r="M179" s="6">
+        <v>1327</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8126,8 +8140,8 @@
       <c r="L180" s="4">
         <v>1</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.167</v>
+      <c r="M180" s="6">
+        <v>1167</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8165,8 +8179,8 @@
       <c r="L181" s="4">
         <v>7</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M181" s="6">
+        <v>1314</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8206,7 +8220,7 @@
       <c r="L182" s="4">
         <v>7</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>881</v>
       </c>
     </row>
@@ -8245,8 +8259,8 @@
       <c r="L183" s="4">
         <v>6</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.147</v>
+      <c r="M183" s="6">
+        <v>1147</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8286,8 +8300,8 @@
       <c r="L184" s="4">
         <v>10</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.3089999999999999</v>
+      <c r="M184" s="6">
+        <v>1309</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8325,54 +8339,54 @@
       <c r="L185" s="4">
         <v>2</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.798</v>
+      <c r="M185" s="6">
+        <v>1798</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.552</v>
-      </c>
-      <c r="D186" s="5">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="E186" s="5">
-        <v>9.4260000000000002</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.8340000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>5.1619999999999999</v>
-      </c>
-      <c r="I186" s="5">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>1552</v>
+      </c>
+      <c r="D186" s="6">
+        <v>2273</v>
+      </c>
+      <c r="E186" s="6">
+        <v>9426</v>
+      </c>
+      <c r="F186" s="6">
+        <v>2834</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3305</v>
+      </c>
+      <c r="H186" s="6">
+        <v>5162</v>
+      </c>
+      <c r="I186" s="6">
+        <v>2733</v>
+      </c>
+      <c r="J186" s="8">
         <v>218</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>12</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>85</v>
       </c>
-      <c r="M186" s="5">
-        <v>27.6</v>
+      <c r="M186" s="6">
+        <v>27600</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8426,11 +8440,11 @@
       <c r="F188" s="4">
         <v>4</v>
       </c>
-      <c r="G188" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="H188" s="4">
-        <v>3.9129999999999998</v>
+      <c r="G188" s="5">
+        <v>1641</v>
+      </c>
+      <c r="H188" s="5">
+        <v>3913</v>
       </c>
       <c r="I188" s="4">
         <v>832</v>
@@ -8444,8 +8458,8 @@
       <c r="L188" s="4">
         <v>48</v>
       </c>
-      <c r="M188" s="5">
-        <v>6.5430000000000001</v>
+      <c r="M188" s="6">
+        <v>6543</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8465,14 +8479,14 @@
       <c r="F189" s="4">
         <v>2</v>
       </c>
-      <c r="G189" s="4">
-        <v>1.252</v>
-      </c>
-      <c r="H189" s="4">
-        <v>3.8410000000000002</v>
-      </c>
-      <c r="I189" s="4">
-        <v>1.161</v>
+      <c r="G189" s="5">
+        <v>1252</v>
+      </c>
+      <c r="H189" s="5">
+        <v>3841</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1161</v>
       </c>
       <c r="J189" s="4">
         <v>18</v>
@@ -8483,8 +8497,8 @@
       <c r="L189" s="4">
         <v>31</v>
       </c>
-      <c r="M189" s="5">
-        <v>6.4550000000000001</v>
+      <c r="M189" s="6">
+        <v>6455</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8506,14 +8520,14 @@
       <c r="F190" s="4">
         <v>41</v>
       </c>
-      <c r="G190" s="4">
-        <v>1.3360000000000001</v>
-      </c>
-      <c r="H190" s="4">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="I190" s="4">
-        <v>1.8520000000000001</v>
+      <c r="G190" s="5">
+        <v>1336</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1561</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1852</v>
       </c>
       <c r="J190" s="4">
         <v>137</v>
@@ -8524,8 +8538,8 @@
       <c r="L190" s="4">
         <v>32</v>
       </c>
-      <c r="M190" s="5">
-        <v>5.0640000000000001</v>
+      <c r="M190" s="6">
+        <v>5064</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8548,11 +8562,11 @@
       <c r="G191" s="4">
         <v>951</v>
       </c>
-      <c r="H191" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="I191" s="4">
-        <v>2.1459999999999999</v>
+      <c r="H191" s="5">
+        <v>1233</v>
+      </c>
+      <c r="I191" s="5">
+        <v>2146</v>
       </c>
       <c r="J191" s="4">
         <v>145</v>
@@ -8563,8 +8577,8 @@
       <c r="L191" s="4">
         <v>35</v>
       </c>
-      <c r="M191" s="5">
-        <v>4.7560000000000002</v>
+      <c r="M191" s="6">
+        <v>4756</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8589,11 +8603,11 @@
       <c r="G192" s="4">
         <v>575</v>
       </c>
-      <c r="H192" s="4">
-        <v>1.58</v>
-      </c>
-      <c r="I192" s="4">
-        <v>1.722</v>
+      <c r="H192" s="5">
+        <v>1580</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1722</v>
       </c>
       <c r="J192" s="4">
         <v>151</v>
@@ -8604,8 +8618,8 @@
       <c r="L192" s="4">
         <v>45</v>
       </c>
-      <c r="M192" s="5">
-        <v>4.9669999999999996</v>
+      <c r="M192" s="6">
+        <v>4967</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8628,11 +8642,11 @@
       <c r="G193" s="4">
         <v>490</v>
       </c>
-      <c r="H193" s="4">
-        <v>1.341</v>
-      </c>
-      <c r="I193" s="4">
-        <v>1.9770000000000001</v>
+      <c r="H193" s="5">
+        <v>1341</v>
+      </c>
+      <c r="I193" s="5">
+        <v>1977</v>
       </c>
       <c r="J193" s="4">
         <v>195</v>
@@ -8643,8 +8657,8 @@
       <c r="L193" s="4">
         <v>45</v>
       </c>
-      <c r="M193" s="5">
-        <v>4.9550000000000001</v>
+      <c r="M193" s="6">
+        <v>4955</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8669,11 +8683,11 @@
       <c r="G194" s="4">
         <v>490</v>
       </c>
-      <c r="H194" s="4">
-        <v>1.659</v>
-      </c>
-      <c r="I194" s="4">
-        <v>1.575</v>
+      <c r="H194" s="5">
+        <v>1659</v>
+      </c>
+      <c r="I194" s="5">
+        <v>1575</v>
       </c>
       <c r="J194" s="4">
         <v>210</v>
@@ -8684,8 +8698,8 @@
       <c r="L194" s="4">
         <v>54</v>
       </c>
-      <c r="M194" s="5">
-        <v>5.218</v>
+      <c r="M194" s="6">
+        <v>5218</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8708,11 +8722,11 @@
       <c r="G195" s="4">
         <v>514</v>
       </c>
-      <c r="H195" s="4">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="I195" s="4">
-        <v>1.6859999999999999</v>
+      <c r="H195" s="5">
+        <v>1757</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1686</v>
       </c>
       <c r="J195" s="4">
         <v>201</v>
@@ -8723,8 +8737,8 @@
       <c r="L195" s="4">
         <v>74</v>
       </c>
-      <c r="M195" s="5">
-        <v>5.6680000000000001</v>
+      <c r="M195" s="6">
+        <v>5668</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8749,11 +8763,11 @@
       <c r="G196" s="4">
         <v>853</v>
       </c>
-      <c r="H196" s="4">
-        <v>1.923</v>
-      </c>
-      <c r="I196" s="4">
-        <v>1.419</v>
+      <c r="H196" s="5">
+        <v>1923</v>
+      </c>
+      <c r="I196" s="5">
+        <v>1419</v>
       </c>
       <c r="J196" s="4">
         <v>241</v>
@@ -8764,8 +8778,8 @@
       <c r="L196" s="4">
         <v>73</v>
       </c>
-      <c r="M196" s="5">
-        <v>5.8150000000000004</v>
+      <c r="M196" s="6">
+        <v>5815</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8779,8 +8793,8 @@
       <c r="D197" s="4">
         <v>67</v>
       </c>
-      <c r="E197" s="4">
-        <v>1.105</v>
+      <c r="E197" s="5">
+        <v>1105</v>
       </c>
       <c r="F197" s="4">
         <v>501</v>
@@ -8788,11 +8802,11 @@
       <c r="G197" s="4">
         <v>841</v>
       </c>
-      <c r="H197" s="4">
-        <v>1.899</v>
-      </c>
-      <c r="I197" s="4">
-        <v>1.5</v>
+      <c r="H197" s="5">
+        <v>1899</v>
+      </c>
+      <c r="I197" s="5">
+        <v>1500</v>
       </c>
       <c r="J197" s="4">
         <v>215</v>
@@ -8803,8 +8817,8 @@
       <c r="L197" s="4">
         <v>65</v>
       </c>
-      <c r="M197" s="5">
-        <v>6.24</v>
+      <c r="M197" s="6">
+        <v>6240</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8829,11 +8843,11 @@
       <c r="G198" s="4">
         <v>734</v>
       </c>
-      <c r="H198" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="I198" s="4">
-        <v>1.306</v>
+      <c r="H198" s="5">
+        <v>1662</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1306</v>
       </c>
       <c r="J198" s="4">
         <v>149</v>
@@ -8844,8 +8858,8 @@
       <c r="L198" s="4">
         <v>73</v>
       </c>
-      <c r="M198" s="5">
-        <v>5.4409999999999998</v>
+      <c r="M198" s="6">
+        <v>5441</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8859,8 +8873,8 @@
       <c r="D199" s="4">
         <v>71</v>
       </c>
-      <c r="E199" s="4">
-        <v>1.425</v>
+      <c r="E199" s="5">
+        <v>1425</v>
       </c>
       <c r="F199" s="4">
         <v>526</v>
@@ -8868,11 +8882,11 @@
       <c r="G199" s="4">
         <v>856</v>
       </c>
-      <c r="H199" s="4">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="I199" s="4">
-        <v>1.216</v>
+      <c r="H199" s="5">
+        <v>1775</v>
+      </c>
+      <c r="I199" s="5">
+        <v>1216</v>
       </c>
       <c r="J199" s="4">
         <v>100</v>
@@ -8883,8 +8897,8 @@
       <c r="L199" s="4">
         <v>87</v>
       </c>
-      <c r="M199" s="5">
-        <v>6.1050000000000004</v>
+      <c r="M199" s="6">
+        <v>6105</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8900,8 +8914,8 @@
       <c r="D200" s="4">
         <v>28</v>
       </c>
-      <c r="E200" s="4">
-        <v>1.0009999999999999</v>
+      <c r="E200" s="5">
+        <v>1001</v>
       </c>
       <c r="F200" s="4">
         <v>690</v>
@@ -8909,11 +8923,11 @@
       <c r="G200" s="4">
         <v>855</v>
       </c>
-      <c r="H200" s="4">
-        <v>1.494</v>
-      </c>
-      <c r="I200" s="4">
-        <v>1.252</v>
+      <c r="H200" s="5">
+        <v>1494</v>
+      </c>
+      <c r="I200" s="5">
+        <v>1252</v>
       </c>
       <c r="J200" s="4">
         <v>146</v>
@@ -8924,8 +8938,8 @@
       <c r="L200" s="4">
         <v>112</v>
       </c>
-      <c r="M200" s="5">
-        <v>5.6070000000000002</v>
+      <c r="M200" s="6">
+        <v>5607</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8939,8 +8953,8 @@
       <c r="D201" s="4">
         <v>89</v>
       </c>
-      <c r="E201" s="4">
-        <v>1.871</v>
+      <c r="E201" s="5">
+        <v>1871</v>
       </c>
       <c r="F201" s="4">
         <v>586</v>
@@ -8948,8 +8962,8 @@
       <c r="G201" s="4">
         <v>863</v>
       </c>
-      <c r="H201" s="4">
-        <v>1.5720000000000001</v>
+      <c r="H201" s="5">
+        <v>1572</v>
       </c>
       <c r="I201" s="4">
         <v>957</v>
@@ -8963,8 +8977,8 @@
       <c r="L201" s="4">
         <v>128</v>
       </c>
-      <c r="M201" s="5">
-        <v>6.2039999999999997</v>
+      <c r="M201" s="6">
+        <v>6204</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8980,8 +8994,8 @@
       <c r="D202" s="4">
         <v>35</v>
       </c>
-      <c r="E202" s="4">
-        <v>1.264</v>
+      <c r="E202" s="5">
+        <v>1264</v>
       </c>
       <c r="F202" s="4">
         <v>558</v>
@@ -8989,11 +9003,11 @@
       <c r="G202" s="4">
         <v>821</v>
       </c>
-      <c r="H202" s="4">
-        <v>1.468</v>
-      </c>
-      <c r="I202" s="4">
-        <v>1.171</v>
+      <c r="H202" s="5">
+        <v>1468</v>
+      </c>
+      <c r="I202" s="5">
+        <v>1171</v>
       </c>
       <c r="J202" s="4">
         <v>99</v>
@@ -9004,8 +9018,8 @@
       <c r="L202" s="4">
         <v>179</v>
       </c>
-      <c r="M202" s="5">
-        <v>5.6360000000000001</v>
+      <c r="M202" s="6">
+        <v>5636</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9019,8 +9033,8 @@
       <c r="D203" s="4">
         <v>156</v>
       </c>
-      <c r="E203" s="4">
-        <v>2.3580000000000001</v>
+      <c r="E203" s="5">
+        <v>2358</v>
       </c>
       <c r="F203" s="4">
         <v>444</v>
@@ -9028,8 +9042,8 @@
       <c r="G203" s="4">
         <v>798</v>
       </c>
-      <c r="H203" s="4">
-        <v>1.6020000000000001</v>
+      <c r="H203" s="5">
+        <v>1602</v>
       </c>
       <c r="I203" s="4">
         <v>900</v>
@@ -9043,8 +9057,8 @@
       <c r="L203" s="4">
         <v>217</v>
       </c>
-      <c r="M203" s="5">
-        <v>6.633</v>
+      <c r="M203" s="6">
+        <v>6633</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9060,8 +9074,8 @@
       <c r="D204" s="4">
         <v>52</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.69</v>
+      <c r="E204" s="5">
+        <v>1690</v>
       </c>
       <c r="F204" s="4">
         <v>385</v>
@@ -9069,11 +9083,11 @@
       <c r="G204" s="4">
         <v>744</v>
       </c>
-      <c r="H204" s="4">
-        <v>1.708</v>
-      </c>
-      <c r="I204" s="4">
-        <v>1.105</v>
+      <c r="H204" s="5">
+        <v>1708</v>
+      </c>
+      <c r="I204" s="5">
+        <v>1105</v>
       </c>
       <c r="J204" s="4">
         <v>83</v>
@@ -9084,8 +9098,8 @@
       <c r="L204" s="4">
         <v>210</v>
       </c>
-      <c r="M204" s="5">
-        <v>6.0110000000000001</v>
+      <c r="M204" s="6">
+        <v>6011</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9099,8 +9113,8 @@
       <c r="D205" s="4">
         <v>238</v>
       </c>
-      <c r="E205" s="4">
-        <v>2.964</v>
+      <c r="E205" s="5">
+        <v>2964</v>
       </c>
       <c r="F205" s="4">
         <v>262</v>
@@ -9108,8 +9122,8 @@
       <c r="G205" s="4">
         <v>632</v>
       </c>
-      <c r="H205" s="4">
-        <v>1.6819999999999999</v>
+      <c r="H205" s="5">
+        <v>1682</v>
       </c>
       <c r="I205" s="4">
         <v>809</v>
@@ -9123,8 +9137,8 @@
       <c r="L205" s="4">
         <v>221</v>
       </c>
-      <c r="M205" s="5">
-        <v>6.9710000000000001</v>
+      <c r="M205" s="6">
+        <v>6971</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9140,8 +9154,8 @@
       <c r="D206" s="4">
         <v>78</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.9690000000000001</v>
+      <c r="E206" s="5">
+        <v>1969</v>
       </c>
       <c r="F206" s="4">
         <v>161</v>
@@ -9149,11 +9163,11 @@
       <c r="G206" s="4">
         <v>614</v>
       </c>
-      <c r="H206" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1.3180000000000001</v>
+      <c r="H206" s="5">
+        <v>1301</v>
+      </c>
+      <c r="I206" s="5">
+        <v>1318</v>
       </c>
       <c r="J206" s="4">
         <v>63</v>
@@ -9164,8 +9178,8 @@
       <c r="L206" s="4">
         <v>217</v>
       </c>
-      <c r="M206" s="5">
-        <v>5.7789999999999999</v>
+      <c r="M206" s="6">
+        <v>5779</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9179,8 +9193,8 @@
       <c r="D207" s="4">
         <v>344</v>
       </c>
-      <c r="E207" s="4">
-        <v>2.8969999999999998</v>
+      <c r="E207" s="5">
+        <v>2897</v>
       </c>
       <c r="F207" s="4">
         <v>148</v>
@@ -9188,8 +9202,8 @@
       <c r="G207" s="4">
         <v>593</v>
       </c>
-      <c r="H207" s="4">
-        <v>1.0589999999999999</v>
+      <c r="H207" s="5">
+        <v>1059</v>
       </c>
       <c r="I207" s="4">
         <v>708</v>
@@ -9203,8 +9217,8 @@
       <c r="L207" s="4">
         <v>209</v>
       </c>
-      <c r="M207" s="5">
-        <v>6.1509999999999998</v>
+      <c r="M207" s="6">
+        <v>6151</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9220,8 +9234,8 @@
       <c r="D208" s="4">
         <v>99</v>
       </c>
-      <c r="E208" s="4">
-        <v>1.66</v>
+      <c r="E208" s="5">
+        <v>1660</v>
       </c>
       <c r="F208" s="4">
         <v>67</v>
@@ -9244,8 +9258,8 @@
       <c r="L208" s="4">
         <v>185</v>
       </c>
-      <c r="M208" s="5">
-        <v>4.3630000000000004</v>
+      <c r="M208" s="6">
+        <v>4363</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9259,8 +9273,8 @@
       <c r="D209" s="4">
         <v>393</v>
       </c>
-      <c r="E209" s="4">
-        <v>2.2029999999999998</v>
+      <c r="E209" s="5">
+        <v>2203</v>
       </c>
       <c r="F209" s="4">
         <v>50</v>
@@ -9283,8 +9297,8 @@
       <c r="L209" s="4">
         <v>211</v>
       </c>
-      <c r="M209" s="5">
-        <v>4.4850000000000003</v>
+      <c r="M209" s="6">
+        <v>4485</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9300,8 +9314,8 @@
       <c r="D210" s="4">
         <v>272</v>
       </c>
-      <c r="E210" s="4">
-        <v>2.0409999999999999</v>
+      <c r="E210" s="5">
+        <v>2041</v>
       </c>
       <c r="F210" s="4">
         <v>30</v>
@@ -9324,8 +9338,8 @@
       <c r="L210" s="4">
         <v>332</v>
       </c>
-      <c r="M210" s="5">
-        <v>4.8819999999999997</v>
+      <c r="M210" s="6">
+        <v>4882</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9339,8 +9353,8 @@
       <c r="D211" s="4">
         <v>880</v>
       </c>
-      <c r="E211" s="4">
-        <v>2.641</v>
+      <c r="E211" s="5">
+        <v>2641</v>
       </c>
       <c r="F211" s="4">
         <v>22</v>
@@ -9363,54 +9377,54 @@
       <c r="L211" s="4">
         <v>258</v>
       </c>
-      <c r="M211" s="5">
-        <v>5.5229999999999997</v>
+      <c r="M211" s="6">
+        <v>5523</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="D212" s="5">
-        <v>3.35</v>
-      </c>
-      <c r="E212" s="5">
-        <v>30.152999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>8.5609999999999999</v>
-      </c>
-      <c r="G212" s="5">
-        <v>18.14</v>
-      </c>
-      <c r="H212" s="5">
-        <v>38.875999999999998</v>
-      </c>
-      <c r="I212" s="5">
-        <v>28.914999999999999</v>
-      </c>
-      <c r="J212" s="5">
-        <v>2.5169999999999999</v>
-      </c>
-      <c r="K212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>1545</v>
+      </c>
+      <c r="D212" s="6">
+        <v>3350</v>
+      </c>
+      <c r="E212" s="6">
+        <v>30153</v>
+      </c>
+      <c r="F212" s="6">
+        <v>8561</v>
+      </c>
+      <c r="G212" s="6">
+        <v>18140</v>
+      </c>
+      <c r="H212" s="6">
+        <v>38876</v>
+      </c>
+      <c r="I212" s="6">
+        <v>28915</v>
+      </c>
+      <c r="J212" s="6">
+        <v>2517</v>
+      </c>
+      <c r="K212" s="8">
         <v>274</v>
       </c>
-      <c r="L212" s="5">
-        <v>3.141</v>
-      </c>
-      <c r="M212" s="5">
-        <v>135.47200000000001</v>
+      <c r="L212" s="6">
+        <v>3141</v>
+      </c>
+      <c r="M212" s="6">
+        <v>135472</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9482,8 +9496,8 @@
       <c r="L214" s="4">
         <v>4</v>
       </c>
-      <c r="M214" s="5">
-        <v>1.0900000000000001</v>
+      <c r="M214" s="6">
+        <v>1090</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9521,8 +9535,8 @@
       <c r="L215" s="4">
         <v>2</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.002</v>
+      <c r="M215" s="6">
+        <v>1002</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9562,7 +9576,7 @@
       <c r="L216" s="4">
         <v>4</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="8">
         <v>988</v>
       </c>
     </row>
@@ -9601,7 +9615,7 @@
       <c r="L217" s="4">
         <v>11</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>818</v>
       </c>
     </row>
@@ -9642,7 +9656,7 @@
       <c r="L218" s="4">
         <v>8</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>928</v>
       </c>
     </row>
@@ -9681,7 +9695,7 @@
       <c r="L219" s="4">
         <v>11</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>821</v>
       </c>
     </row>
@@ -9722,7 +9736,7 @@
       <c r="L220" s="4">
         <v>10</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>924</v>
       </c>
     </row>
@@ -9761,7 +9775,7 @@
       <c r="L221" s="4">
         <v>10</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>873</v>
       </c>
     </row>
@@ -9802,8 +9816,8 @@
       <c r="L222" s="4">
         <v>8</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.03</v>
+      <c r="M222" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9841,7 +9855,7 @@
       <c r="L223" s="4">
         <v>11</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>927</v>
       </c>
     </row>
@@ -9882,8 +9896,8 @@
       <c r="L224" s="4">
         <v>14</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M224" s="6">
+        <v>1033</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9921,8 +9935,8 @@
       <c r="L225" s="4">
         <v>16</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.0069999999999999</v>
+      <c r="M225" s="6">
+        <v>1007</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9962,8 +9976,8 @@
       <c r="L226" s="4">
         <v>21</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.157</v>
+      <c r="M226" s="6">
+        <v>1157</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10001,8 +10015,8 @@
       <c r="L227" s="4">
         <v>26</v>
       </c>
-      <c r="M227" s="5">
-        <v>1.238</v>
+      <c r="M227" s="6">
+        <v>1238</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10042,8 +10056,8 @@
       <c r="L228" s="4">
         <v>21</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.26</v>
+      <c r="M228" s="6">
+        <v>1260</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10081,8 +10095,8 @@
       <c r="L229" s="4">
         <v>22</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M229" s="6">
+        <v>1314</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10122,8 +10136,8 @@
       <c r="L230" s="4">
         <v>24</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.3440000000000001</v>
+      <c r="M230" s="6">
+        <v>1344</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10161,8 +10175,8 @@
       <c r="L231" s="4">
         <v>33</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.4990000000000001</v>
+      <c r="M231" s="6">
+        <v>1499</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10202,8 +10216,8 @@
       <c r="L232" s="4">
         <v>25</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.2430000000000001</v>
+      <c r="M232" s="6">
+        <v>1243</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10241,8 +10255,8 @@
       <c r="L233" s="4">
         <v>29</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M233" s="6">
+        <v>1293</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10282,7 +10296,7 @@
       <c r="L234" s="4">
         <v>30</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>987</v>
       </c>
     </row>
@@ -10321,8 +10335,8 @@
       <c r="L235" s="4">
         <v>30</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.121</v>
+      <c r="M235" s="6">
+        <v>1121</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10362,8 +10376,8 @@
       <c r="L236" s="4">
         <v>37</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.2769999999999999</v>
+      <c r="M236" s="6">
+        <v>1277</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10401,54 +10415,54 @@
       <c r="L237" s="4">
         <v>34</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.6180000000000001</v>
+      <c r="M237" s="6">
+        <v>1618</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>310</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="8">
         <v>628</v>
       </c>
-      <c r="E238" s="5">
-        <v>8.2590000000000003</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="G238" s="5">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>6.7880000000000003</v>
-      </c>
-      <c r="I238" s="5">
-        <v>4.5270000000000001</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="E238" s="6">
+        <v>8259</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1759</v>
+      </c>
+      <c r="G238" s="6">
+        <v>3647</v>
+      </c>
+      <c r="H238" s="6">
+        <v>6788</v>
+      </c>
+      <c r="I238" s="6">
+        <v>4527</v>
+      </c>
+      <c r="J238" s="8">
         <v>395</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>38</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>441</v>
       </c>
-      <c r="M238" s="5">
-        <v>26.792000000000002</v>
+      <c r="M238" s="6">
+        <v>26792</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10520,7 +10534,7 @@
       <c r="L240" s="4">
         <v>6</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="8">
         <v>739</v>
       </c>
     </row>
@@ -10559,7 +10573,7 @@
       <c r="L241" s="4">
         <v>2</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="8">
         <v>740</v>
       </c>
     </row>
@@ -10600,7 +10614,7 @@
       <c r="L242" s="4">
         <v>6</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>550</v>
       </c>
     </row>
@@ -10639,7 +10653,7 @@
       <c r="L243" s="4">
         <v>2</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>543</v>
       </c>
     </row>
@@ -10680,7 +10694,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>555</v>
       </c>
     </row>
@@ -10719,7 +10733,7 @@
       <c r="L245" s="4">
         <v>4</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>525</v>
       </c>
     </row>
@@ -10760,7 +10774,7 @@
       <c r="L246" s="4">
         <v>1</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>544</v>
       </c>
     </row>
@@ -10799,7 +10813,7 @@
       <c r="L247" s="4">
         <v>5</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>561</v>
       </c>
     </row>
@@ -10840,7 +10854,7 @@
       <c r="L248" s="4">
         <v>2</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>640</v>
       </c>
     </row>
@@ -10879,7 +10893,7 @@
       <c r="L249" s="4">
         <v>7</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>621</v>
       </c>
     </row>
@@ -10920,7 +10934,7 @@
       <c r="L250" s="4">
         <v>3</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>563</v>
       </c>
     </row>
@@ -10959,7 +10973,7 @@
       <c r="L251" s="4">
         <v>6</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>527</v>
       </c>
     </row>
@@ -11000,7 +11014,7 @@
       <c r="L252" s="4">
         <v>4</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>548</v>
       </c>
     </row>
@@ -11039,7 +11053,7 @@
       <c r="L253" s="4">
         <v>8</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>533</v>
       </c>
     </row>
@@ -11080,7 +11094,7 @@
       <c r="L254" s="4">
         <v>9</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>556</v>
       </c>
     </row>
@@ -11119,7 +11133,7 @@
       <c r="L255" s="4">
         <v>10</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>597</v>
       </c>
     </row>
@@ -11160,7 +11174,7 @@
       <c r="L256" s="4">
         <v>13</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>523</v>
       </c>
     </row>
@@ -11199,7 +11213,7 @@
       <c r="L257" s="4">
         <v>9</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>613</v>
       </c>
     </row>
@@ -11240,7 +11254,7 @@
       <c r="L258" s="4">
         <v>19</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>591</v>
       </c>
     </row>
@@ -11279,7 +11293,7 @@
       <c r="L259" s="4">
         <v>16</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>568</v>
       </c>
     </row>
@@ -11320,7 +11334,7 @@
       <c r="L260" s="4">
         <v>6</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>415</v>
       </c>
     </row>
@@ -11359,7 +11373,7 @@
       <c r="L261" s="4">
         <v>7</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>428</v>
       </c>
     </row>
@@ -11400,7 +11414,7 @@
       <c r="L262" s="4">
         <v>12</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>492</v>
       </c>
     </row>
@@ -11439,7 +11453,7 @@
       <c r="L263" s="4">
         <v>15</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>641</v>
       </c>
     </row>
@@ -11447,46 +11461,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>143</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="8">
         <v>482</v>
       </c>
-      <c r="E264" s="5">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>3638</v>
+      </c>
+      <c r="F264" s="8">
         <v>888</v>
       </c>
-      <c r="G264" s="5">
-        <v>2.0830000000000002</v>
-      </c>
-      <c r="H264" s="5">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="I264" s="5">
-        <v>2.4729999999999999</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="G264" s="6">
+        <v>2083</v>
+      </c>
+      <c r="H264" s="6">
+        <v>3479</v>
+      </c>
+      <c r="I264" s="6">
+        <v>2473</v>
+      </c>
+      <c r="J264" s="8">
         <v>229</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>23</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>175</v>
       </c>
-      <c r="M264" s="5">
-        <v>13.613</v>
+      <c r="M264" s="6">
+        <v>13613</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11543,8 +11557,8 @@
       <c r="G266" s="4">
         <v>619</v>
       </c>
-      <c r="H266" s="4">
-        <v>2.0840000000000001</v>
+      <c r="H266" s="5">
+        <v>2084</v>
       </c>
       <c r="I266" s="4">
         <v>470</v>
@@ -11558,8 +11572,8 @@
       <c r="L266" s="4">
         <v>11</v>
       </c>
-      <c r="M266" s="5">
-        <v>3.2080000000000002</v>
+      <c r="M266" s="6">
+        <v>3208</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11582,8 +11596,8 @@
       <c r="G267" s="4">
         <v>460</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.887</v>
+      <c r="H267" s="5">
+        <v>1887</v>
       </c>
       <c r="I267" s="4">
         <v>764</v>
@@ -11597,8 +11611,8 @@
       <c r="L267" s="4">
         <v>11</v>
       </c>
-      <c r="M267" s="5">
-        <v>3.1659999999999999</v>
+      <c r="M267" s="6">
+        <v>3166</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11638,8 +11652,8 @@
       <c r="L268" s="4">
         <v>13</v>
       </c>
-      <c r="M268" s="5">
-        <v>2.5310000000000001</v>
+      <c r="M268" s="6">
+        <v>2531</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11665,8 +11679,8 @@
       <c r="H269" s="4">
         <v>568</v>
       </c>
-      <c r="I269" s="4">
-        <v>1.087</v>
+      <c r="I269" s="5">
+        <v>1087</v>
       </c>
       <c r="J269" s="4">
         <v>58</v>
@@ -11677,8 +11691,8 @@
       <c r="L269" s="4">
         <v>7</v>
       </c>
-      <c r="M269" s="5">
-        <v>2.2130000000000001</v>
+      <c r="M269" s="6">
+        <v>2213</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11718,8 +11732,8 @@
       <c r="L270" s="4">
         <v>6</v>
       </c>
-      <c r="M270" s="5">
-        <v>2.2890000000000001</v>
+      <c r="M270" s="6">
+        <v>2289</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11757,8 +11771,8 @@
       <c r="L271" s="4">
         <v>9</v>
       </c>
-      <c r="M271" s="5">
-        <v>2.254</v>
+      <c r="M271" s="6">
+        <v>2254</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11798,8 +11812,8 @@
       <c r="L272" s="4">
         <v>11</v>
       </c>
-      <c r="M272" s="5">
-        <v>2.3969999999999998</v>
+      <c r="M272" s="6">
+        <v>2397</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11837,8 +11851,8 @@
       <c r="L273" s="4">
         <v>13</v>
       </c>
-      <c r="M273" s="5">
-        <v>2.3820000000000001</v>
+      <c r="M273" s="6">
+        <v>2382</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11878,8 +11892,8 @@
       <c r="L274" s="4">
         <v>10</v>
       </c>
-      <c r="M274" s="5">
-        <v>2.798</v>
+      <c r="M274" s="6">
+        <v>2798</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11917,8 +11931,8 @@
       <c r="L275" s="4">
         <v>7</v>
       </c>
-      <c r="M275" s="5">
-        <v>2.702</v>
+      <c r="M275" s="6">
+        <v>2702</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11958,8 +11972,8 @@
       <c r="L276" s="4">
         <v>9</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.68</v>
+      <c r="M276" s="6">
+        <v>2680</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11973,8 +11987,8 @@
       <c r="D277" s="4">
         <v>32</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.0880000000000001</v>
+      <c r="E277" s="5">
+        <v>1088</v>
       </c>
       <c r="F277" s="4">
         <v>390</v>
@@ -11997,8 +12011,8 @@
       <c r="L277" s="4">
         <v>10</v>
       </c>
-      <c r="M277" s="5">
-        <v>2.819</v>
+      <c r="M277" s="6">
+        <v>2819</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12038,8 +12052,8 @@
       <c r="L278" s="4">
         <v>13</v>
       </c>
-      <c r="M278" s="5">
-        <v>2.871</v>
+      <c r="M278" s="6">
+        <v>2871</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12053,8 +12067,8 @@
       <c r="D279" s="4">
         <v>33</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.42</v>
+      <c r="E279" s="5">
+        <v>1420</v>
       </c>
       <c r="F279" s="4">
         <v>454</v>
@@ -12077,8 +12091,8 @@
       <c r="L279" s="4">
         <v>14</v>
       </c>
-      <c r="M279" s="5">
-        <v>2.883</v>
+      <c r="M279" s="6">
+        <v>2883</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12118,8 +12132,8 @@
       <c r="L280" s="4">
         <v>20</v>
       </c>
-      <c r="M280" s="5">
-        <v>2.7189999999999999</v>
+      <c r="M280" s="6">
+        <v>2719</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12133,8 +12147,8 @@
       <c r="D281" s="4">
         <v>61</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.651</v>
+      <c r="E281" s="5">
+        <v>1651</v>
       </c>
       <c r="F281" s="4">
         <v>313</v>
@@ -12157,8 +12171,8 @@
       <c r="L281" s="4">
         <v>18</v>
       </c>
-      <c r="M281" s="5">
-        <v>2.766</v>
+      <c r="M281" s="6">
+        <v>2766</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12174,8 +12188,8 @@
       <c r="D282" s="4">
         <v>23</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.377</v>
+      <c r="E282" s="5">
+        <v>1377</v>
       </c>
       <c r="F282" s="4">
         <v>299</v>
@@ -12198,8 +12212,8 @@
       <c r="L282" s="4">
         <v>9</v>
       </c>
-      <c r="M282" s="5">
-        <v>2.6360000000000001</v>
+      <c r="M282" s="6">
+        <v>2636</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12213,8 +12227,8 @@
       <c r="D283" s="4">
         <v>111</v>
       </c>
-      <c r="E283" s="4">
-        <v>2.0750000000000002</v>
+      <c r="E283" s="5">
+        <v>2075</v>
       </c>
       <c r="F283" s="4">
         <v>159</v>
@@ -12237,8 +12251,8 @@
       <c r="L283" s="4">
         <v>15</v>
       </c>
-      <c r="M283" s="5">
-        <v>2.883</v>
+      <c r="M283" s="6">
+        <v>2883</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12254,8 +12268,8 @@
       <c r="D284" s="4">
         <v>64</v>
       </c>
-      <c r="E284" s="4">
-        <v>1.359</v>
+      <c r="E284" s="5">
+        <v>1359</v>
       </c>
       <c r="F284" s="4">
         <v>128</v>
@@ -12278,8 +12292,8 @@
       <c r="L284" s="4">
         <v>17</v>
       </c>
-      <c r="M284" s="5">
-        <v>2.2789999999999999</v>
+      <c r="M284" s="6">
+        <v>2279</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12293,8 +12307,8 @@
       <c r="D285" s="4">
         <v>181</v>
       </c>
-      <c r="E285" s="4">
-        <v>1.7869999999999999</v>
+      <c r="E285" s="5">
+        <v>1787</v>
       </c>
       <c r="F285" s="4">
         <v>70</v>
@@ -12317,8 +12331,8 @@
       <c r="L285" s="4">
         <v>11</v>
       </c>
-      <c r="M285" s="5">
-        <v>2.3519999999999999</v>
+      <c r="M285" s="6">
+        <v>2352</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12334,8 +12348,8 @@
       <c r="D286" s="4">
         <v>95</v>
       </c>
-      <c r="E286" s="4">
-        <v>1.1060000000000001</v>
+      <c r="E286" s="5">
+        <v>1106</v>
       </c>
       <c r="F286" s="4">
         <v>28</v>
@@ -12358,8 +12372,8 @@
       <c r="L286" s="4">
         <v>10</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.611</v>
+      <c r="M286" s="6">
+        <v>1611</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12373,8 +12387,8 @@
       <c r="D287" s="4">
         <v>278</v>
       </c>
-      <c r="E287" s="4">
-        <v>1.2410000000000001</v>
+      <c r="E287" s="5">
+        <v>1241</v>
       </c>
       <c r="F287" s="4">
         <v>12</v>
@@ -12397,8 +12411,8 @@
       <c r="L287" s="4">
         <v>11</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.82</v>
+      <c r="M287" s="6">
+        <v>1820</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12414,8 +12428,8 @@
       <c r="D288" s="4">
         <v>386</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.179</v>
+      <c r="E288" s="5">
+        <v>1179</v>
       </c>
       <c r="F288" s="4">
         <v>15</v>
@@ -12438,8 +12452,8 @@
       <c r="L288" s="4">
         <v>15</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.923</v>
+      <c r="M288" s="6">
+        <v>1923</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12453,8 +12467,8 @@
       <c r="D289" s="4">
         <v>658</v>
       </c>
-      <c r="E289" s="4">
-        <v>1.373</v>
+      <c r="E289" s="5">
+        <v>1373</v>
       </c>
       <c r="F289" s="4">
         <v>6</v>
@@ -12477,54 +12491,54 @@
       <c r="L289" s="4">
         <v>11</v>
       </c>
-      <c r="M289" s="5">
-        <v>2.7469999999999999</v>
+      <c r="M289" s="6">
+        <v>2747</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.198</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2.198</v>
-      </c>
-      <c r="E290" s="5">
-        <v>19.818000000000001</v>
-      </c>
-      <c r="F290" s="5">
-        <v>5.57</v>
-      </c>
-      <c r="G290" s="5">
-        <v>7.5010000000000003</v>
-      </c>
-      <c r="H290" s="5">
-        <v>14.206</v>
-      </c>
-      <c r="I290" s="5">
-        <v>9.36</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
+        <v>1198</v>
+      </c>
+      <c r="D290" s="6">
+        <v>2198</v>
+      </c>
+      <c r="E290" s="6">
+        <v>19818</v>
+      </c>
+      <c r="F290" s="6">
+        <v>5570</v>
+      </c>
+      <c r="G290" s="6">
+        <v>7501</v>
+      </c>
+      <c r="H290" s="6">
+        <v>14206</v>
+      </c>
+      <c r="I290" s="6">
+        <v>9360</v>
+      </c>
+      <c r="J290" s="8">
         <v>729</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>68</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>281</v>
       </c>
-      <c r="M290" s="5">
-        <v>60.929000000000002</v>
+      <c r="M290" s="6">
+        <v>60929</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12596,8 +12610,8 @@
       <c r="L292" s="4">
         <v>6</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.2609999999999999</v>
+      <c r="M292" s="6">
+        <v>1261</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12635,8 +12649,8 @@
       <c r="L293" s="4">
         <v>4</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.323</v>
+      <c r="M293" s="6">
+        <v>1323</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12676,7 +12690,7 @@
       <c r="L294" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="8">
         <v>930</v>
       </c>
     </row>
@@ -12715,7 +12729,7 @@
       <c r="L295" s="4">
         <v>11</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="8">
         <v>865</v>
       </c>
     </row>
@@ -12756,7 +12770,7 @@
       <c r="L296" s="4">
         <v>3</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="8">
         <v>849</v>
       </c>
     </row>
@@ -12795,7 +12809,7 @@
       <c r="L297" s="4">
         <v>16</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="8">
         <v>852</v>
       </c>
     </row>
@@ -12836,7 +12850,7 @@
       <c r="L298" s="4">
         <v>1</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="8">
         <v>980</v>
       </c>
     </row>
@@ -12875,7 +12889,7 @@
       <c r="L299" s="4">
         <v>12</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="8">
         <v>940</v>
       </c>
     </row>
@@ -12916,8 +12930,8 @@
       <c r="L300" s="4">
         <v>3</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M300" s="6">
+        <v>1003</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12955,7 +12969,7 @@
       <c r="L301" s="4">
         <v>6</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="8">
         <v>967</v>
       </c>
     </row>
@@ -12996,7 +13010,7 @@
       <c r="L302" s="4">
         <v>4</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="8">
         <v>985</v>
       </c>
     </row>
@@ -13035,7 +13049,7 @@
       <c r="L303" s="4">
         <v>4</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="8">
         <v>916</v>
       </c>
     </row>
@@ -13076,7 +13090,7 @@
       <c r="L304" s="4">
         <v>1</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="8">
         <v>883</v>
       </c>
     </row>
@@ -13115,7 +13129,7 @@
       <c r="L305" s="4">
         <v>4</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="8">
         <v>887</v>
       </c>
     </row>
@@ -13156,7 +13170,7 @@
       <c r="L306" s="4">
         <v>1</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="8">
         <v>924</v>
       </c>
     </row>
@@ -13195,7 +13209,7 @@
       <c r="L307" s="4">
         <v>3</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="8">
         <v>874</v>
       </c>
     </row>
@@ -13236,7 +13250,7 @@
       <c r="L308" s="4">
         <v>3</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="8">
         <v>867</v>
       </c>
     </row>
@@ -13275,7 +13289,7 @@
       <c r="L309" s="4">
         <v>1</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="8">
         <v>893</v>
       </c>
     </row>
@@ -13316,7 +13330,7 @@
       <c r="L310" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="8">
         <v>695</v>
       </c>
     </row>
@@ -13355,7 +13369,7 @@
       <c r="L311" s="4">
         <v>2</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="8">
         <v>711</v>
       </c>
     </row>
@@ -13396,7 +13410,7 @@
       <c r="L312" s="4">
         <v>1</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>553</v>
       </c>
     </row>
@@ -13435,7 +13449,7 @@
       <c r="L313" s="4">
         <v>4</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="8">
         <v>561</v>
       </c>
     </row>
@@ -13476,7 +13490,7 @@
       <c r="L314" s="4">
         <v>1</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>626</v>
       </c>
     </row>
@@ -13515,7 +13529,7 @@
       <c r="L315" s="4">
         <v>1</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="8">
         <v>999</v>
       </c>
     </row>
@@ -13523,46 +13537,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="8">
         <v>494</v>
       </c>
-      <c r="D316" s="5">
-        <v>1.073</v>
-      </c>
-      <c r="E316" s="5">
-        <v>7.6970000000000001</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.371</v>
-      </c>
-      <c r="G316" s="5">
-        <v>3.7389999999999999</v>
-      </c>
-      <c r="H316" s="5">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="I316" s="5">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="D316" s="6">
+        <v>1073</v>
+      </c>
+      <c r="E316" s="6">
+        <v>7697</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2371</v>
+      </c>
+      <c r="G316" s="6">
+        <v>3739</v>
+      </c>
+      <c r="H316" s="6">
+        <v>3994</v>
+      </c>
+      <c r="I316" s="6">
+        <v>1753</v>
+      </c>
+      <c r="J316" s="8">
         <v>121</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="8">
         <v>10</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>92</v>
       </c>
-      <c r="M316" s="5">
-        <v>21.344000000000001</v>
+      <c r="M316" s="6">
+        <v>21344</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13634,8 +13648,8 @@
       <c r="L318" s="4">
         <v>10</v>
       </c>
-      <c r="M318" s="5">
-        <v>1.4510000000000001</v>
+      <c r="M318" s="6">
+        <v>1451</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13673,8 +13687,8 @@
       <c r="L319" s="4">
         <v>2</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.35</v>
+      <c r="M319" s="6">
+        <v>1350</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13714,7 +13728,7 @@
       <c r="L320" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M320" s="5">
+      <c r="M320" s="8">
         <v>952</v>
       </c>
     </row>
@@ -13753,7 +13767,7 @@
       <c r="L321" s="4">
         <v>3</v>
       </c>
-      <c r="M321" s="5">
+      <c r="M321" s="8">
         <v>800</v>
       </c>
     </row>
@@ -13794,7 +13808,7 @@
       <c r="L322" s="4">
         <v>2</v>
       </c>
-      <c r="M322" s="5">
+      <c r="M322" s="8">
         <v>826</v>
       </c>
     </row>
@@ -13833,7 +13847,7 @@
       <c r="L323" s="4">
         <v>2</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="8">
         <v>718</v>
       </c>
     </row>
@@ -13874,7 +13888,7 @@
       <c r="L324" s="4">
         <v>2</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="8">
         <v>847</v>
       </c>
     </row>
@@ -13913,7 +13927,7 @@
       <c r="L325" s="4">
         <v>5</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="8">
         <v>780</v>
       </c>
     </row>
@@ -13954,7 +13968,7 @@
       <c r="L326" s="4">
         <v>3</v>
       </c>
-      <c r="M326" s="5">
+      <c r="M326" s="8">
         <v>975</v>
       </c>
     </row>
@@ -13993,7 +14007,7 @@
       <c r="L327" s="4">
         <v>5</v>
       </c>
-      <c r="M327" s="5">
+      <c r="M327" s="8">
         <v>957</v>
       </c>
     </row>
@@ -14034,8 +14048,8 @@
       <c r="L328" s="4">
         <v>4</v>
       </c>
-      <c r="M328" s="5">
-        <v>1.167</v>
+      <c r="M328" s="6">
+        <v>1167</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14073,8 +14087,8 @@
       <c r="L329" s="4">
         <v>3</v>
       </c>
-      <c r="M329" s="5">
-        <v>1.0820000000000001</v>
+      <c r="M329" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14114,8 +14128,8 @@
       <c r="L330" s="4">
         <v>3</v>
       </c>
-      <c r="M330" s="5">
-        <v>1.1519999999999999</v>
+      <c r="M330" s="6">
+        <v>1152</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14153,8 +14167,8 @@
       <c r="L331" s="4">
         <v>6</v>
       </c>
-      <c r="M331" s="5">
-        <v>1.097</v>
+      <c r="M331" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14194,8 +14208,8 @@
       <c r="L332" s="4">
         <v>9</v>
       </c>
-      <c r="M332" s="5">
-        <v>1.2370000000000001</v>
+      <c r="M332" s="6">
+        <v>1237</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14233,8 +14247,8 @@
       <c r="L333" s="4">
         <v>6</v>
       </c>
-      <c r="M333" s="5">
-        <v>1.24</v>
+      <c r="M333" s="6">
+        <v>1240</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14274,8 +14288,8 @@
       <c r="L334" s="4">
         <v>4</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.1839999999999999</v>
+      <c r="M334" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14313,8 +14327,8 @@
       <c r="L335" s="4">
         <v>6</v>
       </c>
-      <c r="M335" s="5">
-        <v>1.2070000000000001</v>
+      <c r="M335" s="6">
+        <v>1207</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14354,7 +14368,7 @@
       <c r="L336" s="4">
         <v>4</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="8">
         <v>983</v>
       </c>
     </row>
@@ -14393,8 +14407,8 @@
       <c r="L337" s="4">
         <v>6</v>
       </c>
-      <c r="M337" s="5">
-        <v>1.1619999999999999</v>
+      <c r="M337" s="6">
+        <v>1162</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14434,7 +14448,7 @@
       <c r="L338" s="4">
         <v>6</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="8">
         <v>785</v>
       </c>
     </row>
@@ -14473,7 +14487,7 @@
       <c r="L339" s="4">
         <v>9</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="8">
         <v>988</v>
       </c>
     </row>
@@ -14514,8 +14528,8 @@
       <c r="L340" s="4">
         <v>4</v>
       </c>
-      <c r="M340" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M340" s="6">
+        <v>1267</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14553,54 +14567,54 @@
       <c r="L341" s="4">
         <v>5</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.7509999999999999</v>
+      <c r="M341" s="6">
+        <v>1751</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="8">
         <v>946</v>
       </c>
-      <c r="D342" s="5">
-        <v>1.637</v>
-      </c>
-      <c r="E342" s="5">
-        <v>9.8130000000000006</v>
-      </c>
-      <c r="F342" s="5">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="G342" s="5">
-        <v>3.363</v>
-      </c>
-      <c r="H342" s="5">
-        <v>5.2640000000000002</v>
-      </c>
-      <c r="I342" s="5">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="D342" s="6">
+        <v>1637</v>
+      </c>
+      <c r="E342" s="6">
+        <v>9813</v>
+      </c>
+      <c r="F342" s="6">
+        <v>2275</v>
+      </c>
+      <c r="G342" s="6">
+        <v>3363</v>
+      </c>
+      <c r="H342" s="6">
+        <v>5264</v>
+      </c>
+      <c r="I342" s="6">
+        <v>2393</v>
+      </c>
+      <c r="J342" s="8">
         <v>148</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="8">
         <v>10</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="8">
         <v>109</v>
       </c>
-      <c r="M342" s="5">
-        <v>25.957999999999998</v>
+      <c r="M342" s="6">
+        <v>25958</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14654,14 +14668,14 @@
       <c r="F344" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="4">
-        <v>1.488</v>
-      </c>
-      <c r="H344" s="4">
-        <v>5.1760000000000002</v>
-      </c>
-      <c r="I344" s="4">
-        <v>1.2270000000000001</v>
+      <c r="G344" s="5">
+        <v>1488</v>
+      </c>
+      <c r="H344" s="5">
+        <v>5176</v>
+      </c>
+      <c r="I344" s="5">
+        <v>1227</v>
       </c>
       <c r="J344" s="4">
         <v>9</v>
@@ -14672,8 +14686,8 @@
       <c r="L344" s="4">
         <v>61</v>
       </c>
-      <c r="M344" s="5">
-        <v>7.9850000000000003</v>
+      <c r="M344" s="6">
+        <v>7985</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14693,14 +14707,14 @@
       <c r="F345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G345" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H345" s="4">
-        <v>5.07</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.8</v>
+      <c r="G345" s="5">
+        <v>1059</v>
+      </c>
+      <c r="H345" s="5">
+        <v>5070</v>
+      </c>
+      <c r="I345" s="5">
+        <v>1800</v>
       </c>
       <c r="J345" s="4">
         <v>22</v>
@@ -14711,8 +14725,8 @@
       <c r="L345" s="4">
         <v>18</v>
       </c>
-      <c r="M345" s="5">
-        <v>7.9939999999999998</v>
+      <c r="M345" s="6">
+        <v>7994</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14734,14 +14748,14 @@
       <c r="F346" s="4">
         <v>13</v>
       </c>
-      <c r="G346" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="H346" s="4">
-        <v>2.1539999999999999</v>
-      </c>
-      <c r="I346" s="4">
-        <v>2.5099999999999998</v>
+      <c r="G346" s="5">
+        <v>1010</v>
+      </c>
+      <c r="H346" s="5">
+        <v>2154</v>
+      </c>
+      <c r="I346" s="5">
+        <v>2510</v>
       </c>
       <c r="J346" s="4">
         <v>215</v>
@@ -14752,8 +14766,8 @@
       <c r="L346" s="4">
         <v>35</v>
       </c>
-      <c r="M346" s="5">
-        <v>5.9649999999999999</v>
+      <c r="M346" s="6">
+        <v>5965</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14776,11 +14790,11 @@
       <c r="G347" s="4">
         <v>790</v>
       </c>
-      <c r="H347" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="I347" s="4">
-        <v>3.3650000000000002</v>
+      <c r="H347" s="5">
+        <v>1554</v>
+      </c>
+      <c r="I347" s="5">
+        <v>3365</v>
       </c>
       <c r="J347" s="4">
         <v>283</v>
@@ -14791,8 +14805,8 @@
       <c r="L347" s="4">
         <v>18</v>
       </c>
-      <c r="M347" s="5">
-        <v>6.0869999999999997</v>
+      <c r="M347" s="6">
+        <v>6087</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14817,11 +14831,11 @@
       <c r="G348" s="4">
         <v>476</v>
       </c>
-      <c r="H348" s="4">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="I348" s="4">
-        <v>2.6459999999999999</v>
+      <c r="H348" s="5">
+        <v>2041</v>
+      </c>
+      <c r="I348" s="5">
+        <v>2646</v>
       </c>
       <c r="J348" s="4">
         <v>337</v>
@@ -14832,8 +14846,8 @@
       <c r="L348" s="4">
         <v>33</v>
       </c>
-      <c r="M348" s="5">
-        <v>6.16</v>
+      <c r="M348" s="6">
+        <v>6160</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14856,11 +14870,11 @@
       <c r="G349" s="4">
         <v>451</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="I349" s="4">
-        <v>3.0550000000000002</v>
+      <c r="H349" s="5">
+        <v>1668</v>
+      </c>
+      <c r="I349" s="5">
+        <v>3055</v>
       </c>
       <c r="J349" s="4">
         <v>373</v>
@@ -14871,8 +14885,8 @@
       <c r="L349" s="4">
         <v>41</v>
       </c>
-      <c r="M349" s="5">
-        <v>6.4050000000000002</v>
+      <c r="M349" s="6">
+        <v>6405</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14897,11 +14911,11 @@
       <c r="G350" s="4">
         <v>504</v>
       </c>
-      <c r="H350" s="4">
-        <v>2.367</v>
-      </c>
-      <c r="I350" s="4">
-        <v>2.5209999999999999</v>
+      <c r="H350" s="5">
+        <v>2367</v>
+      </c>
+      <c r="I350" s="5">
+        <v>2521</v>
       </c>
       <c r="J350" s="4">
         <v>383</v>
@@ -14912,8 +14926,8 @@
       <c r="L350" s="4">
         <v>22</v>
       </c>
-      <c r="M350" s="5">
-        <v>6.8090000000000002</v>
+      <c r="M350" s="6">
+        <v>6809</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14936,11 +14950,11 @@
       <c r="G351" s="4">
         <v>623</v>
       </c>
-      <c r="H351" s="4">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="I351" s="4">
-        <v>2.427</v>
+      <c r="H351" s="5">
+        <v>2124</v>
+      </c>
+      <c r="I351" s="5">
+        <v>2427</v>
       </c>
       <c r="J351" s="4">
         <v>337</v>
@@ -14951,8 +14965,8 @@
       <c r="L351" s="4">
         <v>18</v>
       </c>
-      <c r="M351" s="5">
-        <v>7.0119999999999996</v>
+      <c r="M351" s="6">
+        <v>7012</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14977,11 +14991,11 @@
       <c r="G352" s="4">
         <v>929</v>
       </c>
-      <c r="H352" s="4">
-        <v>2.7650000000000001</v>
-      </c>
-      <c r="I352" s="4">
-        <v>2.0920000000000001</v>
+      <c r="H352" s="5">
+        <v>2765</v>
+      </c>
+      <c r="I352" s="5">
+        <v>2092</v>
       </c>
       <c r="J352" s="4">
         <v>330</v>
@@ -14992,8 +15006,8 @@
       <c r="L352" s="4">
         <v>26</v>
       </c>
-      <c r="M352" s="5">
-        <v>7.2889999999999997</v>
+      <c r="M352" s="6">
+        <v>7289</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15007,20 +15021,20 @@
       <c r="D353" s="4">
         <v>25</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.278</v>
+      <c r="E353" s="5">
+        <v>1278</v>
       </c>
       <c r="F353" s="4">
         <v>657</v>
       </c>
-      <c r="G353" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H353" s="4">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="I353" s="4">
-        <v>1.923</v>
+      <c r="G353" s="5">
+        <v>1059</v>
+      </c>
+      <c r="H353" s="5">
+        <v>2368</v>
+      </c>
+      <c r="I353" s="5">
+        <v>1923</v>
       </c>
       <c r="J353" s="4">
         <v>284</v>
@@ -15031,8 +15045,8 @@
       <c r="L353" s="4">
         <v>24</v>
       </c>
-      <c r="M353" s="5">
-        <v>7.67</v>
+      <c r="M353" s="6">
+        <v>7670</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15057,11 +15071,11 @@
       <c r="G354" s="4">
         <v>907</v>
       </c>
-      <c r="H354" s="4">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="I354" s="4">
-        <v>1.946</v>
+      <c r="H354" s="5">
+        <v>2388</v>
+      </c>
+      <c r="I354" s="5">
+        <v>1946</v>
       </c>
       <c r="J354" s="4">
         <v>261</v>
@@ -15072,8 +15086,8 @@
       <c r="L354" s="4">
         <v>19</v>
       </c>
-      <c r="M354" s="5">
-        <v>7.0350000000000001</v>
+      <c r="M354" s="6">
+        <v>7035</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15087,20 +15101,20 @@
       <c r="D355" s="4">
         <v>21</v>
       </c>
-      <c r="E355" s="4">
-        <v>1.75</v>
+      <c r="E355" s="5">
+        <v>1750</v>
       </c>
       <c r="F355" s="4">
         <v>918</v>
       </c>
-      <c r="G355" s="4">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="H355" s="4">
-        <v>2.056</v>
-      </c>
-      <c r="I355" s="4">
-        <v>1.371</v>
+      <c r="G355" s="5">
+        <v>1021</v>
+      </c>
+      <c r="H355" s="5">
+        <v>2056</v>
+      </c>
+      <c r="I355" s="5">
+        <v>1371</v>
       </c>
       <c r="J355" s="4">
         <v>147</v>
@@ -15111,8 +15125,8 @@
       <c r="L355" s="4">
         <v>45</v>
       </c>
-      <c r="M355" s="5">
-        <v>7.3769999999999998</v>
+      <c r="M355" s="6">
+        <v>7377</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15137,11 +15151,11 @@
       <c r="G356" s="4">
         <v>929</v>
       </c>
-      <c r="H356" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="I356" s="4">
-        <v>1.5840000000000001</v>
+      <c r="H356" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I356" s="5">
+        <v>1584</v>
       </c>
       <c r="J356" s="4">
         <v>195</v>
@@ -15152,8 +15166,8 @@
       <c r="L356" s="4">
         <v>46</v>
       </c>
-      <c r="M356" s="5">
-        <v>6.3840000000000003</v>
+      <c r="M356" s="6">
+        <v>6384</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15167,8 +15181,8 @@
       <c r="D357" s="4">
         <v>39</v>
       </c>
-      <c r="E357" s="4">
-        <v>2.2679999999999998</v>
+      <c r="E357" s="5">
+        <v>2268</v>
       </c>
       <c r="F357" s="4">
         <v>869</v>
@@ -15176,8 +15190,8 @@
       <c r="G357" s="4">
         <v>914</v>
       </c>
-      <c r="H357" s="4">
-        <v>1.4810000000000001</v>
+      <c r="H357" s="5">
+        <v>1481</v>
       </c>
       <c r="I357" s="4">
         <v>813</v>
@@ -15191,8 +15205,8 @@
       <c r="L357" s="4">
         <v>67</v>
       </c>
-      <c r="M357" s="5">
-        <v>6.585</v>
+      <c r="M357" s="6">
+        <v>6585</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15208,8 +15222,8 @@
       <c r="D358" s="4">
         <v>7</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.234</v>
+      <c r="E358" s="5">
+        <v>1234</v>
       </c>
       <c r="F358" s="4">
         <v>818</v>
@@ -15217,11 +15231,11 @@
       <c r="G358" s="4">
         <v>818</v>
       </c>
-      <c r="H358" s="4">
-        <v>1.415</v>
-      </c>
-      <c r="I358" s="4">
-        <v>1.2350000000000001</v>
+      <c r="H358" s="5">
+        <v>1415</v>
+      </c>
+      <c r="I358" s="5">
+        <v>1235</v>
       </c>
       <c r="J358" s="4">
         <v>112</v>
@@ -15232,8 +15246,8 @@
       <c r="L358" s="4">
         <v>65</v>
       </c>
-      <c r="M358" s="5">
-        <v>5.7409999999999997</v>
+      <c r="M358" s="6">
+        <v>5741</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15247,8 +15261,8 @@
       <c r="D359" s="4">
         <v>87</v>
       </c>
-      <c r="E359" s="4">
-        <v>2.883</v>
+      <c r="E359" s="5">
+        <v>2883</v>
       </c>
       <c r="F359" s="4">
         <v>577</v>
@@ -15256,8 +15270,8 @@
       <c r="G359" s="4">
         <v>728</v>
       </c>
-      <c r="H359" s="4">
-        <v>1.151</v>
+      <c r="H359" s="5">
+        <v>1151</v>
       </c>
       <c r="I359" s="4">
         <v>590</v>
@@ -15271,8 +15285,8 @@
       <c r="L359" s="4">
         <v>55</v>
       </c>
-      <c r="M359" s="5">
-        <v>6.1619999999999999</v>
+      <c r="M359" s="6">
+        <v>6162</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15288,8 +15302,8 @@
       <c r="D360" s="4">
         <v>37</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.7509999999999999</v>
+      <c r="E360" s="5">
+        <v>1751</v>
       </c>
       <c r="F360" s="4">
         <v>411</v>
@@ -15297,8 +15311,8 @@
       <c r="G360" s="4">
         <v>611</v>
       </c>
-      <c r="H360" s="4">
-        <v>1.2949999999999999</v>
+      <c r="H360" s="5">
+        <v>1295</v>
       </c>
       <c r="I360" s="4">
         <v>995</v>
@@ -15312,8 +15326,8 @@
       <c r="L360" s="4">
         <v>37</v>
       </c>
-      <c r="M360" s="5">
-        <v>5.2380000000000004</v>
+      <c r="M360" s="6">
+        <v>5238</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15327,8 +15341,8 @@
       <c r="D361" s="4">
         <v>167</v>
       </c>
-      <c r="E361" s="4">
-        <v>3.306</v>
+      <c r="E361" s="5">
+        <v>3306</v>
       </c>
       <c r="F361" s="4">
         <v>273</v>
@@ -15351,8 +15365,8 @@
       <c r="L361" s="4">
         <v>37</v>
       </c>
-      <c r="M361" s="5">
-        <v>5.7009999999999996</v>
+      <c r="M361" s="6">
+        <v>5701</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15368,8 +15382,8 @@
       <c r="D362" s="4">
         <v>43</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.766</v>
+      <c r="E362" s="5">
+        <v>1766</v>
       </c>
       <c r="F362" s="4">
         <v>155</v>
@@ -15392,8 +15406,8 @@
       <c r="L362" s="4">
         <v>42</v>
       </c>
-      <c r="M362" s="5">
-        <v>4.2519999999999998</v>
+      <c r="M362" s="6">
+        <v>4252</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15407,8 +15421,8 @@
       <c r="D363" s="4">
         <v>233</v>
       </c>
-      <c r="E363" s="4">
-        <v>2.931</v>
+      <c r="E363" s="5">
+        <v>2931</v>
       </c>
       <c r="F363" s="4">
         <v>102</v>
@@ -15431,8 +15445,8 @@
       <c r="L363" s="4">
         <v>43</v>
       </c>
-      <c r="M363" s="5">
-        <v>4.476</v>
+      <c r="M363" s="6">
+        <v>4476</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15448,8 +15462,8 @@
       <c r="D364" s="4">
         <v>47</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.5189999999999999</v>
+      <c r="E364" s="5">
+        <v>1519</v>
       </c>
       <c r="F364" s="4">
         <v>56</v>
@@ -15472,8 +15486,8 @@
       <c r="L364" s="4">
         <v>27</v>
       </c>
-      <c r="M364" s="5">
-        <v>2.9009999999999998</v>
+      <c r="M364" s="6">
+        <v>2901</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15487,8 +15501,8 @@
       <c r="D365" s="4">
         <v>292</v>
       </c>
-      <c r="E365" s="4">
-        <v>2.3580000000000001</v>
+      <c r="E365" s="5">
+        <v>2358</v>
       </c>
       <c r="F365" s="4">
         <v>21</v>
@@ -15511,8 +15525,8 @@
       <c r="L365" s="4">
         <v>43</v>
       </c>
-      <c r="M365" s="5">
-        <v>3.4020000000000001</v>
+      <c r="M365" s="6">
+        <v>3402</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15528,8 +15542,8 @@
       <c r="D366" s="4">
         <v>199</v>
       </c>
-      <c r="E366" s="4">
-        <v>2.0710000000000002</v>
+      <c r="E366" s="5">
+        <v>2071</v>
       </c>
       <c r="F366" s="4">
         <v>28</v>
@@ -15552,8 +15566,8 @@
       <c r="L366" s="4">
         <v>64</v>
       </c>
-      <c r="M366" s="5">
-        <v>3.4340000000000002</v>
+      <c r="M366" s="6">
+        <v>3434</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15567,8 +15581,8 @@
       <c r="D367" s="4">
         <v>937</v>
       </c>
-      <c r="E367" s="4">
-        <v>2.9289999999999998</v>
+      <c r="E367" s="5">
+        <v>2929</v>
       </c>
       <c r="F367" s="4">
         <v>9</v>
@@ -15591,54 +15605,54 @@
       <c r="L367" s="4">
         <v>47</v>
       </c>
-      <c r="M367" s="5">
-        <v>4.9089999999999998</v>
+      <c r="M367" s="6">
+        <v>4909</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="D368" s="5">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="E368" s="5">
-        <v>30.827000000000002</v>
-      </c>
-      <c r="F368" s="5">
-        <v>10.242000000000001</v>
-      </c>
-      <c r="G368" s="5">
-        <v>16.349</v>
-      </c>
-      <c r="H368" s="5">
-        <v>42.274999999999999</v>
-      </c>
-      <c r="I368" s="5">
-        <v>34.868000000000002</v>
-      </c>
-      <c r="J368" s="5">
-        <v>3.6219999999999999</v>
-      </c>
-      <c r="K368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="6">
+        <v>1082</v>
+      </c>
+      <c r="D368" s="6">
+        <v>2275</v>
+      </c>
+      <c r="E368" s="6">
+        <v>30827</v>
+      </c>
+      <c r="F368" s="6">
+        <v>10242</v>
+      </c>
+      <c r="G368" s="6">
+        <v>16349</v>
+      </c>
+      <c r="H368" s="6">
+        <v>42275</v>
+      </c>
+      <c r="I368" s="6">
+        <v>34868</v>
+      </c>
+      <c r="J368" s="6">
+        <v>3622</v>
+      </c>
+      <c r="K368" s="8">
         <v>500</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="8">
         <v>933</v>
       </c>
-      <c r="M368" s="5">
-        <v>142.97300000000001</v>
+      <c r="M368" s="6">
+        <v>142973</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15710,7 +15724,7 @@
       <c r="L370" s="4">
         <v>3</v>
       </c>
-      <c r="M370" s="5">
+      <c r="M370" s="8">
         <v>766</v>
       </c>
     </row>
@@ -15749,7 +15763,7 @@
       <c r="L371" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M371" s="5">
+      <c r="M371" s="8">
         <v>733</v>
       </c>
     </row>
@@ -15790,7 +15804,7 @@
       <c r="L372" s="4">
         <v>4</v>
       </c>
-      <c r="M372" s="5">
+      <c r="M372" s="8">
         <v>556</v>
       </c>
     </row>
@@ -15829,7 +15843,7 @@
       <c r="L373" s="4">
         <v>2</v>
       </c>
-      <c r="M373" s="5">
+      <c r="M373" s="8">
         <v>418</v>
       </c>
     </row>
@@ -15870,7 +15884,7 @@
       <c r="L374" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M374" s="5">
+      <c r="M374" s="8">
         <v>428</v>
       </c>
     </row>
@@ -15909,7 +15923,7 @@
       <c r="L375" s="4">
         <v>4</v>
       </c>
-      <c r="M375" s="5">
+      <c r="M375" s="8">
         <v>391</v>
       </c>
     </row>
@@ -15950,7 +15964,7 @@
       <c r="L376" s="4">
         <v>3</v>
       </c>
-      <c r="M376" s="5">
+      <c r="M376" s="8">
         <v>481</v>
       </c>
     </row>
@@ -15989,7 +16003,7 @@
       <c r="L377" s="4">
         <v>2</v>
       </c>
-      <c r="M377" s="5">
+      <c r="M377" s="8">
         <v>405</v>
       </c>
     </row>
@@ -16030,7 +16044,7 @@
       <c r="L378" s="4">
         <v>3</v>
       </c>
-      <c r="M378" s="5">
+      <c r="M378" s="8">
         <v>633</v>
       </c>
     </row>
@@ -16069,7 +16083,7 @@
       <c r="L379" s="4">
         <v>2</v>
       </c>
-      <c r="M379" s="5">
+      <c r="M379" s="8">
         <v>506</v>
       </c>
     </row>
@@ -16110,7 +16124,7 @@
       <c r="L380" s="4">
         <v>4</v>
       </c>
-      <c r="M380" s="5">
+      <c r="M380" s="8">
         <v>718</v>
       </c>
     </row>
@@ -16149,7 +16163,7 @@
       <c r="L381" s="4">
         <v>6</v>
       </c>
-      <c r="M381" s="5">
+      <c r="M381" s="8">
         <v>657</v>
       </c>
     </row>
@@ -16190,7 +16204,7 @@
       <c r="L382" s="4">
         <v>2</v>
       </c>
-      <c r="M382" s="5">
+      <c r="M382" s="8">
         <v>752</v>
       </c>
     </row>
@@ -16229,7 +16243,7 @@
       <c r="L383" s="4">
         <v>8</v>
       </c>
-      <c r="M383" s="5">
+      <c r="M383" s="8">
         <v>776</v>
       </c>
     </row>
@@ -16270,7 +16284,7 @@
       <c r="L384" s="4">
         <v>5</v>
       </c>
-      <c r="M384" s="5">
+      <c r="M384" s="8">
         <v>814</v>
       </c>
     </row>
@@ -16309,7 +16323,7 @@
       <c r="L385" s="4">
         <v>8</v>
       </c>
-      <c r="M385" s="5">
+      <c r="M385" s="8">
         <v>847</v>
       </c>
     </row>
@@ -16350,7 +16364,7 @@
       <c r="L386" s="4">
         <v>4</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="8">
         <v>773</v>
       </c>
     </row>
@@ -16389,7 +16403,7 @@
       <c r="L387" s="4">
         <v>4</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="8">
         <v>882</v>
       </c>
     </row>
@@ -16430,7 +16444,7 @@
       <c r="L388" s="4">
         <v>5</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="8">
         <v>725</v>
       </c>
     </row>
@@ -16469,7 +16483,7 @@
       <c r="L389" s="4">
         <v>6</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="8">
         <v>826</v>
       </c>
     </row>
@@ -16510,7 +16524,7 @@
       <c r="L390" s="4">
         <v>5</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="8">
         <v>631</v>
       </c>
     </row>
@@ -16549,7 +16563,7 @@
       <c r="L391" s="4">
         <v>4</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="8">
         <v>740</v>
       </c>
     </row>
@@ -16590,7 +16604,7 @@
       <c r="L392" s="4">
         <v>16</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="8">
         <v>816</v>
       </c>
     </row>
@@ -16629,54 +16643,54 @@
       <c r="L393" s="4">
         <v>14</v>
       </c>
-      <c r="M393" s="5">
-        <v>1.2070000000000001</v>
+      <c r="M393" s="6">
+        <v>1207</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="8">
         <v>377</v>
       </c>
-      <c r="D394" s="5">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="E394" s="5">
-        <v>6.7930000000000001</v>
-      </c>
-      <c r="F394" s="5">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="G394" s="5">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="H394" s="5">
-        <v>2.8860000000000001</v>
-      </c>
-      <c r="I394" s="5">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="D394" s="6">
+        <v>1364</v>
+      </c>
+      <c r="E394" s="6">
+        <v>6793</v>
+      </c>
+      <c r="F394" s="6">
+        <v>1439</v>
+      </c>
+      <c r="G394" s="6">
+        <v>2123</v>
+      </c>
+      <c r="H394" s="6">
+        <v>2886</v>
+      </c>
+      <c r="I394" s="6">
+        <v>1283</v>
+      </c>
+      <c r="J394" s="8">
         <v>91</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="8">
         <v>11</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="8">
         <v>114</v>
       </c>
-      <c r="M394" s="5">
-        <v>16.481000000000002</v>
+      <c r="M394" s="6">
+        <v>16481</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16748,7 +16762,7 @@
       <c r="L396" s="4">
         <v>7</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="8">
         <v>721</v>
       </c>
     </row>
@@ -16787,7 +16801,7 @@
       <c r="L397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="8">
         <v>626</v>
       </c>
     </row>
@@ -16828,7 +16842,7 @@
       <c r="L398" s="4">
         <v>1</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="8">
         <v>475</v>
       </c>
     </row>
@@ -16867,7 +16881,7 @@
       <c r="L399" s="4">
         <v>2</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="8">
         <v>433</v>
       </c>
     </row>
@@ -16908,7 +16922,7 @@
       <c r="L400" s="4">
         <v>3</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="8">
         <v>477</v>
       </c>
     </row>
@@ -16947,7 +16961,7 @@
       <c r="L401" s="4">
         <v>4</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="8">
         <v>412</v>
       </c>
     </row>
@@ -16988,7 +17002,7 @@
       <c r="L402" s="4">
         <v>1</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="8">
         <v>531</v>
       </c>
     </row>
@@ -17027,7 +17041,7 @@
       <c r="L403" s="4">
         <v>2</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="8">
         <v>403</v>
       </c>
     </row>
@@ -17068,7 +17082,7 @@
       <c r="L404" s="4">
         <v>1</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="8">
         <v>502</v>
       </c>
     </row>
@@ -17107,7 +17121,7 @@
       <c r="L405" s="4">
         <v>2</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="8">
         <v>450</v>
       </c>
     </row>
@@ -17148,7 +17162,7 @@
       <c r="L406" s="4">
         <v>4</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="8">
         <v>566</v>
       </c>
     </row>
@@ -17187,7 +17201,7 @@
       <c r="L407" s="4">
         <v>4</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="8">
         <v>570</v>
       </c>
     </row>
@@ -17228,7 +17242,7 @@
       <c r="L408" s="4">
         <v>3</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="8">
         <v>676</v>
       </c>
     </row>
@@ -17267,7 +17281,7 @@
       <c r="L409" s="4">
         <v>3</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="8">
         <v>645</v>
       </c>
     </row>
@@ -17308,7 +17322,7 @@
       <c r="L410" s="4">
         <v>7</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="8">
         <v>730</v>
       </c>
     </row>
@@ -17347,7 +17361,7 @@
       <c r="L411" s="4">
         <v>4</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="8">
         <v>707</v>
       </c>
     </row>
@@ -17388,7 +17402,7 @@
       <c r="L412" s="4">
         <v>4</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="8">
         <v>786</v>
       </c>
     </row>
@@ -17427,7 +17441,7 @@
       <c r="L413" s="4">
         <v>4</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="8">
         <v>838</v>
       </c>
     </row>
@@ -17468,7 +17482,7 @@
       <c r="L414" s="4">
         <v>4</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="8">
         <v>706</v>
       </c>
     </row>
@@ -17507,7 +17521,7 @@
       <c r="L415" s="4">
         <v>5</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="8">
         <v>773</v>
       </c>
     </row>
@@ -17548,7 +17562,7 @@
       <c r="L416" s="4">
         <v>5</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="8">
         <v>593</v>
       </c>
     </row>
@@ -17587,7 +17601,7 @@
       <c r="L417" s="4">
         <v>4</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="8">
         <v>626</v>
       </c>
     </row>
@@ -17628,7 +17642,7 @@
       <c r="L418" s="4">
         <v>6</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="8">
         <v>758</v>
       </c>
     </row>
@@ -17667,54 +17681,54 @@
       <c r="L419" s="4">
         <v>6</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.155</v>
+      <c r="M419" s="6">
+        <v>1155</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="8">
         <v>163</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="8">
         <v>956</v>
       </c>
-      <c r="E420" s="5">
-        <v>6.1180000000000003</v>
-      </c>
-      <c r="F420" s="5">
-        <v>1.258</v>
-      </c>
-      <c r="G420" s="5">
-        <v>1.887</v>
-      </c>
-      <c r="H420" s="5">
-        <v>2.9820000000000002</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.589</v>
-      </c>
-      <c r="J420" s="5">
+      <c r="E420" s="6">
+        <v>6118</v>
+      </c>
+      <c r="F420" s="6">
+        <v>1258</v>
+      </c>
+      <c r="G420" s="6">
+        <v>1887</v>
+      </c>
+      <c r="H420" s="6">
+        <v>2982</v>
+      </c>
+      <c r="I420" s="6">
+        <v>1589</v>
+      </c>
+      <c r="J420" s="8">
         <v>113</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="8">
         <v>7</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="8">
         <v>86</v>
       </c>
-      <c r="M420" s="5">
-        <v>15.159000000000001</v>
+      <c r="M420" s="6">
+        <v>15159</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -17786,7 +17800,7 @@
       <c r="L422" s="4">
         <v>4</v>
       </c>
-      <c r="M422" s="5">
+      <c r="M422" s="8">
         <v>419</v>
       </c>
     </row>
@@ -17825,7 +17839,7 @@
       <c r="L423" s="4">
         <v>3</v>
       </c>
-      <c r="M423" s="5">
+      <c r="M423" s="8">
         <v>394</v>
       </c>
     </row>
@@ -17866,7 +17880,7 @@
       <c r="L424" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="8">
         <v>416</v>
       </c>
     </row>
@@ -17905,7 +17919,7 @@
       <c r="L425" s="4">
         <v>1</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="8">
         <v>314</v>
       </c>
     </row>
@@ -17946,7 +17960,7 @@
       <c r="L426" s="4">
         <v>4</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="8">
         <v>450</v>
       </c>
     </row>
@@ -17985,7 +17999,7 @@
       <c r="L427" s="4">
         <v>5</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="8">
         <v>344</v>
       </c>
     </row>
@@ -18026,7 +18040,7 @@
       <c r="L428" s="4">
         <v>2</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="8">
         <v>368</v>
       </c>
     </row>
@@ -18065,7 +18079,7 @@
       <c r="L429" s="4">
         <v>7</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="8">
         <v>271</v>
       </c>
     </row>
@@ -18106,7 +18120,7 @@
       <c r="L430" s="4">
         <v>1</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="8">
         <v>384</v>
       </c>
     </row>
@@ -18145,7 +18159,7 @@
       <c r="L431" s="4">
         <v>1</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="8">
         <v>261</v>
       </c>
     </row>
@@ -18186,7 +18200,7 @@
       <c r="L432" s="4">
         <v>5</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="8">
         <v>382</v>
       </c>
     </row>
@@ -18225,7 +18239,7 @@
       <c r="L433" s="4">
         <v>6</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="8">
         <v>319</v>
       </c>
     </row>
@@ -18266,7 +18280,7 @@
       <c r="L434" s="4">
         <v>3</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="8">
         <v>391</v>
       </c>
     </row>
@@ -18305,7 +18319,7 @@
       <c r="L435" s="4">
         <v>7</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="8">
         <v>366</v>
       </c>
     </row>
@@ -18346,7 +18360,7 @@
       <c r="L436" s="4">
         <v>10</v>
       </c>
-      <c r="M436" s="5">
+      <c r="M436" s="8">
         <v>406</v>
       </c>
     </row>
@@ -18385,7 +18399,7 @@
       <c r="L437" s="4">
         <v>5</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="8">
         <v>410</v>
       </c>
     </row>
@@ -18426,7 +18440,7 @@
       <c r="L438" s="4">
         <v>9</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="8">
         <v>447</v>
       </c>
     </row>
@@ -18465,7 +18479,7 @@
       <c r="L439" s="4">
         <v>13</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="8">
         <v>414</v>
       </c>
     </row>
@@ -18506,7 +18520,7 @@
       <c r="L440" s="4">
         <v>10</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="8">
         <v>408</v>
       </c>
     </row>
@@ -18545,7 +18559,7 @@
       <c r="L441" s="4">
         <v>4</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="8">
         <v>381</v>
       </c>
     </row>
@@ -18586,7 +18600,7 @@
       <c r="L442" s="4">
         <v>5</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="8">
         <v>286</v>
       </c>
     </row>
@@ -18625,7 +18639,7 @@
       <c r="L443" s="4">
         <v>7</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="8">
         <v>236</v>
       </c>
     </row>
@@ -18666,7 +18680,7 @@
       <c r="L444" s="4">
         <v>13</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="8">
         <v>336</v>
       </c>
     </row>
@@ -18705,7 +18719,7 @@
       <c r="L445" s="4">
         <v>7</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="8">
         <v>374</v>
       </c>
     </row>
@@ -18713,46 +18727,46 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="8">
         <v>92</v>
       </c>
-      <c r="D446" s="5">
+      <c r="D446" s="8">
         <v>182</v>
       </c>
-      <c r="E446" s="5">
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="F446" s="5">
+      <c r="E446" s="6">
+        <v>2604</v>
+      </c>
+      <c r="F446" s="8">
         <v>733</v>
       </c>
-      <c r="G446" s="5">
-        <v>1.403</v>
-      </c>
-      <c r="H446" s="5">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="I446" s="5">
-        <v>1.252</v>
-      </c>
-      <c r="J446" s="5">
+      <c r="G446" s="6">
+        <v>1403</v>
+      </c>
+      <c r="H446" s="6">
+        <v>2272</v>
+      </c>
+      <c r="I446" s="6">
+        <v>1252</v>
+      </c>
+      <c r="J446" s="8">
         <v>95</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="8">
         <v>12</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="8">
         <v>132</v>
       </c>
-      <c r="M446" s="5">
-        <v>8.7769999999999992</v>
+      <c r="M446" s="6">
+        <v>8777</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B447" s="8"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="2" t="s">
         <v>2</v>
       </c>
@@ -18824,7 +18838,7 @@
       <c r="L448" s="4">
         <v>12</v>
       </c>
-      <c r="M448" s="5">
+      <c r="M448" s="8">
         <v>794</v>
       </c>
     </row>
@@ -18863,7 +18877,7 @@
       <c r="L449" s="4">
         <v>1</v>
       </c>
-      <c r="M449" s="5">
+      <c r="M449" s="8">
         <v>681</v>
       </c>
     </row>
@@ -18904,7 +18918,7 @@
       <c r="L450" s="4">
         <v>3</v>
       </c>
-      <c r="M450" s="5">
+      <c r="M450" s="8">
         <v>528</v>
       </c>
     </row>
@@ -18943,7 +18957,7 @@
       <c r="L451" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M451" s="5">
+      <c r="M451" s="8">
         <v>451</v>
       </c>
     </row>
@@ -18984,7 +18998,7 @@
       <c r="L452" s="4">
         <v>1</v>
       </c>
-      <c r="M452" s="5">
+      <c r="M452" s="8">
         <v>487</v>
       </c>
     </row>
@@ -19023,7 +19037,7 @@
       <c r="L453" s="4">
         <v>3</v>
       </c>
-      <c r="M453" s="5">
+      <c r="M453" s="8">
         <v>433</v>
       </c>
     </row>
@@ -19064,7 +19078,7 @@
       <c r="L454" s="4">
         <v>1</v>
       </c>
-      <c r="M454" s="5">
+      <c r="M454" s="8">
         <v>464</v>
       </c>
     </row>
@@ -19103,7 +19117,7 @@
       <c r="L455" s="4">
         <v>2</v>
       </c>
-      <c r="M455" s="5">
+      <c r="M455" s="8">
         <v>430</v>
       </c>
     </row>
@@ -19144,7 +19158,7 @@
       <c r="L456" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M456" s="5">
+      <c r="M456" s="8">
         <v>541</v>
       </c>
     </row>
@@ -19183,7 +19197,7 @@
       <c r="L457" s="4">
         <v>1</v>
       </c>
-      <c r="M457" s="5">
+      <c r="M457" s="8">
         <v>486</v>
       </c>
     </row>
@@ -19224,7 +19238,7 @@
       <c r="L458" s="4">
         <v>4</v>
       </c>
-      <c r="M458" s="5">
+      <c r="M458" s="8">
         <v>561</v>
       </c>
     </row>
@@ -19263,7 +19277,7 @@
       <c r="L459" s="4">
         <v>5</v>
       </c>
-      <c r="M459" s="5">
+      <c r="M459" s="8">
         <v>574</v>
       </c>
     </row>
@@ -19304,7 +19318,7 @@
       <c r="L460" s="4">
         <v>3</v>
       </c>
-      <c r="M460" s="5">
+      <c r="M460" s="8">
         <v>693</v>
       </c>
     </row>
@@ -19343,7 +19357,7 @@
       <c r="L461" s="4">
         <v>3</v>
       </c>
-      <c r="M461" s="5">
+      <c r="M461" s="8">
         <v>709</v>
       </c>
     </row>
@@ -19384,7 +19398,7 @@
       <c r="L462" s="4">
         <v>3</v>
       </c>
-      <c r="M462" s="5">
+      <c r="M462" s="8">
         <v>708</v>
       </c>
     </row>
@@ -19423,7 +19437,7 @@
       <c r="L463" s="4">
         <v>4</v>
       </c>
-      <c r="M463" s="5">
+      <c r="M463" s="8">
         <v>701</v>
       </c>
     </row>
@@ -19464,7 +19478,7 @@
       <c r="L464" s="4">
         <v>1</v>
       </c>
-      <c r="M464" s="5">
+      <c r="M464" s="8">
         <v>616</v>
       </c>
     </row>
@@ -19503,7 +19517,7 @@
       <c r="L465" s="4">
         <v>4</v>
       </c>
-      <c r="M465" s="5">
+      <c r="M465" s="8">
         <v>573</v>
       </c>
     </row>
@@ -19544,7 +19558,7 @@
       <c r="L466" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="8">
         <v>468</v>
       </c>
     </row>
@@ -19583,7 +19597,7 @@
       <c r="L467" s="4">
         <v>5</v>
       </c>
-      <c r="M467" s="5">
+      <c r="M467" s="8">
         <v>540</v>
       </c>
     </row>
@@ -19624,7 +19638,7 @@
       <c r="L468" s="4">
         <v>2</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="8">
         <v>328</v>
       </c>
     </row>
@@ -19663,7 +19677,7 @@
       <c r="L469" s="4">
         <v>6</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="8">
         <v>453</v>
       </c>
     </row>
@@ -19704,7 +19718,7 @@
       <c r="L470" s="4">
         <v>9</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="8">
         <v>628</v>
       </c>
     </row>
@@ -19743,7 +19757,7 @@
       <c r="L471" s="4">
         <v>7</v>
       </c>
-      <c r="M471" s="5">
+      <c r="M471" s="8">
         <v>857</v>
       </c>
     </row>
@@ -19751,46 +19765,46 @@
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5">
+      <c r="B472" s="7"/>
+      <c r="C472" s="8">
         <v>476</v>
       </c>
-      <c r="D472" s="5">
+      <c r="D472" s="8">
         <v>738</v>
       </c>
-      <c r="E472" s="5">
-        <v>4.2389999999999999</v>
-      </c>
-      <c r="F472" s="5">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="G472" s="5">
-        <v>1.9710000000000001</v>
-      </c>
-      <c r="H472" s="5">
-        <v>3.3119999999999998</v>
-      </c>
-      <c r="I472" s="5">
-        <v>1.544</v>
-      </c>
-      <c r="J472" s="5">
+      <c r="E472" s="6">
+        <v>4239</v>
+      </c>
+      <c r="F472" s="6">
+        <v>1223</v>
+      </c>
+      <c r="G472" s="6">
+        <v>1971</v>
+      </c>
+      <c r="H472" s="6">
+        <v>3312</v>
+      </c>
+      <c r="I472" s="6">
+        <v>1544</v>
+      </c>
+      <c r="J472" s="8">
         <v>117</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="8">
         <v>4</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="8">
         <v>80</v>
       </c>
-      <c r="M472" s="5">
-        <v>13.704000000000001</v>
+      <c r="M472" s="6">
+        <v>13704</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B473" s="8"/>
+      <c r="B473" s="9"/>
       <c r="C473" s="2" t="s">
         <v>2</v>
       </c>
@@ -19862,8 +19876,8 @@
       <c r="L474" s="4">
         <v>11</v>
       </c>
-      <c r="M474" s="5">
-        <v>1.1879999999999999</v>
+      <c r="M474" s="6">
+        <v>1188</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19901,8 +19915,8 @@
       <c r="L475" s="4">
         <v>4</v>
       </c>
-      <c r="M475" s="5">
-        <v>1.17</v>
+      <c r="M475" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19942,7 +19956,7 @@
       <c r="L476" s="4">
         <v>3</v>
       </c>
-      <c r="M476" s="5">
+      <c r="M476" s="8">
         <v>917</v>
       </c>
     </row>
@@ -19981,7 +19995,7 @@
       <c r="L477" s="4">
         <v>2</v>
       </c>
-      <c r="M477" s="5">
+      <c r="M477" s="8">
         <v>793</v>
       </c>
     </row>
@@ -20022,7 +20036,7 @@
       <c r="L478" s="4">
         <v>1</v>
       </c>
-      <c r="M478" s="5">
+      <c r="M478" s="8">
         <v>730</v>
       </c>
     </row>
@@ -20061,7 +20075,7 @@
       <c r="L479" s="4">
         <v>4</v>
       </c>
-      <c r="M479" s="5">
+      <c r="M479" s="8">
         <v>622</v>
       </c>
     </row>
@@ -20102,7 +20116,7 @@
       <c r="L480" s="4">
         <v>4</v>
       </c>
-      <c r="M480" s="5">
+      <c r="M480" s="8">
         <v>728</v>
       </c>
     </row>
@@ -20141,7 +20155,7 @@
       <c r="L481" s="4">
         <v>4</v>
       </c>
-      <c r="M481" s="5">
+      <c r="M481" s="8">
         <v>637</v>
       </c>
     </row>
@@ -20182,7 +20196,7 @@
       <c r="L482" s="4">
         <v>6</v>
       </c>
-      <c r="M482" s="5">
+      <c r="M482" s="8">
         <v>801</v>
       </c>
     </row>
@@ -20221,7 +20235,7 @@
       <c r="L483" s="4">
         <v>9</v>
       </c>
-      <c r="M483" s="5">
+      <c r="M483" s="8">
         <v>779</v>
       </c>
     </row>
@@ -20262,7 +20276,7 @@
       <c r="L484" s="4">
         <v>6</v>
       </c>
-      <c r="M484" s="5">
+      <c r="M484" s="8">
         <v>963</v>
       </c>
     </row>
@@ -20301,8 +20315,8 @@
       <c r="L485" s="4">
         <v>5</v>
       </c>
-      <c r="M485" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M485" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20342,8 +20356,8 @@
       <c r="L486" s="4">
         <v>2</v>
       </c>
-      <c r="M486" s="5">
-        <v>1.274</v>
+      <c r="M486" s="6">
+        <v>1274</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20381,8 +20395,8 @@
       <c r="L487" s="4">
         <v>7</v>
       </c>
-      <c r="M487" s="5">
-        <v>1.3520000000000001</v>
+      <c r="M487" s="6">
+        <v>1352</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20422,8 +20436,8 @@
       <c r="L488" s="4">
         <v>9</v>
       </c>
-      <c r="M488" s="5">
-        <v>1.4830000000000001</v>
+      <c r="M488" s="6">
+        <v>1483</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20461,8 +20475,8 @@
       <c r="L489" s="4">
         <v>9</v>
       </c>
-      <c r="M489" s="5">
-        <v>1.573</v>
+      <c r="M489" s="6">
+        <v>1573</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20502,8 +20516,8 @@
       <c r="L490" s="4">
         <v>4</v>
       </c>
-      <c r="M490" s="5">
-        <v>1.36</v>
+      <c r="M490" s="6">
+        <v>1360</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20517,8 +20531,8 @@
       <c r="D491" s="4">
         <v>199</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E491" s="5">
+        <v>1023</v>
       </c>
       <c r="F491" s="4">
         <v>50</v>
@@ -20541,8 +20555,8 @@
       <c r="L491" s="4">
         <v>5</v>
       </c>
-      <c r="M491" s="5">
-        <v>1.5049999999999999</v>
+      <c r="M491" s="6">
+        <v>1505</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20582,8 +20596,8 @@
       <c r="L492" s="4">
         <v>2</v>
       </c>
-      <c r="M492" s="5">
-        <v>1.244</v>
+      <c r="M492" s="6">
+        <v>1244</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20621,8 +20635,8 @@
       <c r="L493" s="4">
         <v>4</v>
       </c>
-      <c r="M493" s="5">
-        <v>1.41</v>
+      <c r="M493" s="6">
+        <v>1410</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20662,8 +20676,8 @@
       <c r="L494" s="4">
         <v>6</v>
       </c>
-      <c r="M494" s="5">
-        <v>1.075</v>
+      <c r="M494" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -20701,8 +20715,8 @@
       <c r="L495" s="4">
         <v>4</v>
       </c>
-      <c r="M495" s="5">
-        <v>1.323</v>
+      <c r="M495" s="6">
+        <v>1323</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20718,8 +20732,8 @@
       <c r="D496" s="4">
         <v>377</v>
       </c>
-      <c r="E496" s="4">
-        <v>1.1080000000000001</v>
+      <c r="E496" s="5">
+        <v>1108</v>
       </c>
       <c r="F496" s="4">
         <v>17</v>
@@ -20742,8 +20756,8 @@
       <c r="L496" s="4">
         <v>2</v>
       </c>
-      <c r="M496" s="5">
-        <v>1.6990000000000001</v>
+      <c r="M496" s="6">
+        <v>1699</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20754,8 +20768,8 @@
       <c r="C497" s="4">
         <v>526</v>
       </c>
-      <c r="D497" s="4">
-        <v>1.03</v>
+      <c r="D497" s="5">
+        <v>1030</v>
       </c>
       <c r="E497" s="4">
         <v>866</v>
@@ -20781,54 +20795,54 @@
       <c r="L497" s="4">
         <v>8</v>
       </c>
-      <c r="M497" s="5">
-        <v>2.4500000000000002</v>
+      <c r="M497" s="6">
+        <v>2450</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B498" s="6"/>
-      <c r="C498" s="5">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="D498" s="5">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="E498" s="5">
-        <v>11.093</v>
-      </c>
-      <c r="F498" s="5">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="G498" s="5">
-        <v>2.944</v>
-      </c>
-      <c r="H498" s="5">
-        <v>5.0659999999999998</v>
-      </c>
-      <c r="I498" s="5">
-        <v>2.774</v>
-      </c>
-      <c r="J498" s="5">
+      <c r="B498" s="7"/>
+      <c r="C498" s="6">
+        <v>1043</v>
+      </c>
+      <c r="D498" s="6">
+        <v>2745</v>
+      </c>
+      <c r="E498" s="6">
+        <v>11093</v>
+      </c>
+      <c r="F498" s="6">
+        <v>2116</v>
+      </c>
+      <c r="G498" s="6">
+        <v>2944</v>
+      </c>
+      <c r="H498" s="6">
+        <v>5066</v>
+      </c>
+      <c r="I498" s="6">
+        <v>2774</v>
+      </c>
+      <c r="J498" s="8">
         <v>216</v>
       </c>
-      <c r="K498" s="5">
+      <c r="K498" s="8">
         <v>20</v>
       </c>
-      <c r="L498" s="5">
+      <c r="L498" s="8">
         <v>121</v>
       </c>
-      <c r="M498" s="5">
-        <v>28.138000000000002</v>
+      <c r="M498" s="6">
+        <v>28138</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B499" s="8"/>
+      <c r="B499" s="9"/>
       <c r="C499" s="2" t="s">
         <v>2</v>
       </c>
@@ -20885,8 +20899,8 @@
       <c r="G500" s="4">
         <v>338</v>
       </c>
-      <c r="H500" s="4">
-        <v>1.0349999999999999</v>
+      <c r="H500" s="5">
+        <v>1035</v>
       </c>
       <c r="I500" s="4">
         <v>224</v>
@@ -20900,8 +20914,8 @@
       <c r="L500" s="4">
         <v>13</v>
       </c>
-      <c r="M500" s="5">
-        <v>1.6259999999999999</v>
+      <c r="M500" s="6">
+        <v>1626</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -20939,8 +20953,8 @@
       <c r="L501" s="4">
         <v>4</v>
       </c>
-      <c r="M501" s="5">
-        <v>1.5189999999999999</v>
+      <c r="M501" s="6">
+        <v>1519</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -20980,8 +20994,8 @@
       <c r="L502" s="4">
         <v>4</v>
       </c>
-      <c r="M502" s="5">
-        <v>1.167</v>
+      <c r="M502" s="6">
+        <v>1167</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
@@ -21019,8 +21033,8 @@
       <c r="L503" s="4">
         <v>3</v>
       </c>
-      <c r="M503" s="5">
-        <v>1.06</v>
+      <c r="M503" s="6">
+        <v>1060</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
@@ -21060,8 +21074,8 @@
       <c r="L504" s="4">
         <v>6</v>
       </c>
-      <c r="M504" s="5">
-        <v>1.093</v>
+      <c r="M504" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -21099,7 +21113,7 @@
       <c r="L505" s="4">
         <v>8</v>
       </c>
-      <c r="M505" s="5">
+      <c r="M505" s="8">
         <v>989</v>
       </c>
     </row>
@@ -21140,8 +21154,8 @@
       <c r="L506" s="4">
         <v>1</v>
       </c>
-      <c r="M506" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M506" s="6">
+        <v>1114</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
@@ -21179,8 +21193,8 @@
       <c r="L507" s="4">
         <v>8</v>
       </c>
-      <c r="M507" s="5">
-        <v>1.0660000000000001</v>
+      <c r="M507" s="6">
+        <v>1066</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
@@ -21220,8 +21234,8 @@
       <c r="L508" s="4">
         <v>7</v>
       </c>
-      <c r="M508" s="5">
-        <v>1.347</v>
+      <c r="M508" s="6">
+        <v>1347</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -21259,8 +21273,8 @@
       <c r="L509" s="4">
         <v>8</v>
       </c>
-      <c r="M509" s="5">
-        <v>1.254</v>
+      <c r="M509" s="6">
+        <v>1254</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -21300,8 +21314,8 @@
       <c r="L510" s="4">
         <v>4</v>
       </c>
-      <c r="M510" s="5">
-        <v>1.3260000000000001</v>
+      <c r="M510" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
@@ -21339,8 +21353,8 @@
       <c r="L511" s="4">
         <v>6</v>
       </c>
-      <c r="M511" s="5">
-        <v>1.3420000000000001</v>
+      <c r="M511" s="6">
+        <v>1342</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
@@ -21380,8 +21394,8 @@
       <c r="L512" s="4">
         <v>11</v>
       </c>
-      <c r="M512" s="5">
-        <v>1.4059999999999999</v>
+      <c r="M512" s="6">
+        <v>1406</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -21419,8 +21433,8 @@
       <c r="L513" s="4">
         <v>10</v>
       </c>
-      <c r="M513" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M513" s="6">
+        <v>1493</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
@@ -21460,8 +21474,8 @@
       <c r="L514" s="4">
         <v>9</v>
       </c>
-      <c r="M514" s="5">
-        <v>1.468</v>
+      <c r="M514" s="6">
+        <v>1468</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
@@ -21499,8 +21513,8 @@
       <c r="L515" s="4">
         <v>15</v>
       </c>
-      <c r="M515" s="5">
-        <v>1.5189999999999999</v>
+      <c r="M515" s="6">
+        <v>1519</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -21540,8 +21554,8 @@
       <c r="L516" s="4">
         <v>11</v>
       </c>
-      <c r="M516" s="5">
-        <v>1.4159999999999999</v>
+      <c r="M516" s="6">
+        <v>1416</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
@@ -21579,8 +21593,8 @@
       <c r="L517" s="4">
         <v>16</v>
       </c>
-      <c r="M517" s="5">
-        <v>1.4910000000000001</v>
+      <c r="M517" s="6">
+        <v>1491</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -21620,8 +21634,8 @@
       <c r="L518" s="4">
         <v>9</v>
       </c>
-      <c r="M518" s="5">
-        <v>1.123</v>
+      <c r="M518" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
@@ -21659,8 +21673,8 @@
       <c r="L519" s="4">
         <v>10</v>
       </c>
-      <c r="M519" s="5">
-        <v>1.353</v>
+      <c r="M519" s="6">
+        <v>1353</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
@@ -21700,7 +21714,7 @@
       <c r="L520" s="4">
         <v>8</v>
       </c>
-      <c r="M520" s="5">
+      <c r="M520" s="8">
         <v>919</v>
       </c>
     </row>
@@ -21739,8 +21753,8 @@
       <c r="L521" s="4">
         <v>13</v>
       </c>
-      <c r="M521" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M521" s="6">
+        <v>1003</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
@@ -21780,8 +21794,8 @@
       <c r="L522" s="4">
         <v>9</v>
       </c>
-      <c r="M522" s="5">
-        <v>1.08</v>
+      <c r="M522" s="6">
+        <v>1080</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -21819,56 +21833,61 @@
       <c r="L523" s="4">
         <v>14</v>
       </c>
-      <c r="M523" s="5">
-        <v>1.7849999999999999</v>
+      <c r="M523" s="6">
+        <v>1785</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B524" s="6"/>
-      <c r="C524" s="5">
+      <c r="B524" s="7"/>
+      <c r="C524" s="8">
         <v>487</v>
       </c>
-      <c r="D524" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="E524" s="5">
-        <v>9.907</v>
-      </c>
-      <c r="F524" s="5">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="G524" s="5">
-        <v>4.101</v>
-      </c>
-      <c r="H524" s="5">
-        <v>8.4359999999999999</v>
-      </c>
-      <c r="I524" s="5">
-        <v>4.2939999999999996</v>
-      </c>
-      <c r="J524" s="5">
+      <c r="D524" s="6">
+        <v>1210</v>
+      </c>
+      <c r="E524" s="6">
+        <v>9907</v>
+      </c>
+      <c r="F524" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G524" s="6">
+        <v>4101</v>
+      </c>
+      <c r="H524" s="6">
+        <v>8436</v>
+      </c>
+      <c r="I524" s="6">
+        <v>4294</v>
+      </c>
+      <c r="J524" s="8">
         <v>278</v>
       </c>
-      <c r="K524" s="5">
+      <c r="K524" s="8">
         <v>18</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="8">
         <v>207</v>
       </c>
-      <c r="M524" s="5">
-        <v>30.959</v>
+      <c r="M524" s="6">
+        <v>30959</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A525" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A526" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A499:B499"/>
     <mergeCell ref="A4:M4"/>
@@ -21885,6 +21904,11 @@
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
